--- a/Listado webs.xlsx
+++ b/Listado webs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8794" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9367" uniqueCount="1932">
   <si>
     <t>Web</t>
   </si>
@@ -5450,6 +5450,564 @@
   </si>
   <si>
     <t>PÃ‰RGOLAS ECOCLIMA, S.L</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Maria del Carmen', 'Maiquez ', 1, null, '936915667', 'carmenpatchwork@telefonica.net');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Sang', 'Joong Lee', 2, null, '915445338', 'occ2000@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Javier', 'Huertas ', 3, null, '91 696 73 78 ', 'javier.huertas@grupohastinik.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Enrique', 'Lopez Eusebio', 4, null, '696414243', 'agroser.ele@telefonica.net');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Daniel', 'Esteban Herrador', 5, null, '916434579', 'danielpintores@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Jose', 'Herranz del Espiritu Santo', 6, null, '655580602', 'info@aleahosteleria.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jorge', ' ', 7, null, '916454698', 'contacto@aluminios-hermanos-garcia.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', '', 8, null, '', 'john@agenciayou.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', '', 9, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Luis', 'Vicente de Frutos', 10, null, '916049879', 'infasa@aluminios-infasa-madrid.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Alvaro', 'Ybarra Zavala', 11, null, '', 'photo@alvaroybarra.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Fernando', 'Blas Verdugo', 12, null, '911265333', 'anfervertical@hotmail.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Favio', 'Zambelli ', 13, null, '913839119', 'favio@labrujula.eu');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose Aurelio', 'Moral ', 14, null, '916702554', 'isabelpinilla@area-proyectos.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Domingo', 'Perez Marín', 15, null, '917385088', 'administracion@argumosamotor.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Fernando', 'de Miguel ', 16, null, '914472329', 'artextpaisajismo@yahoo.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Antonio', 'Martin ', 17, null, '952515086', 'autocaresamartin@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Daniela', 'Gallardo ', 18, null, '918757670', 'dgallardo@azulejospena.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 19, null, '619685724', 'bellezaenvena@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Miguel', 'García ', 20, null, '93 408 63 88', 'miguel.garcia@bioclever.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Cornel', 'Petru ', 21, null, '918899903', 'bricolagerodil@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose Fernando', 'Bernal ', 22, null, '916607320', 'jfbernaltolmo@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Blanca', 'Vizoso ', 23, null, '913993179', 'bvizoso@btob.es ');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Nuria', 'Varas ', 24, null, '916540323', 'judicial@bufetevarasmoreno.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose Luis', 'Danzaner ', 25, null, '925508286', 'c.blanca@caldetec.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Cristina', 'Gomez Morales', 26, null, '', 'calmacjewels@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Maria Isabel', 'Montoto ', 27, null, '913327795', 'eurypelma2@yahoo.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Ignacio', 'Herranz Sanjuan', 28, null, '', 'viexcom@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Santiago', 'Menendez ', 29, null, '91 854 30 69', 'mpcanadianhouse.sl@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Margarita', 'Marmi ', 30, null, '938210794', 'marmiserrat@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Miguel Ángel', 'Colas ', 31, null, '918729956', 'colas@conmadera.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Victoria', 'Aguilar Fuertes', 32, null, '918701428', 'v.aguilar@carroceriasaguilar.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Carlos', 'Gomez ', 33, null, '911152751', 'info@cateringbaru.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Santiago', 'Morales ', 35, null, '916978687', 'rm@recuperacionesmorales.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Luis', 'Diaz Gonzalez', 36, null, '949201165', 'juanldiaz@cdiazsa.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Domingo', 'Ortega ', 37, null, '91 697 38 90   ', 'domingo.ortega@comercialsermasa.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 38, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jesus', 'Sanchez ', 39, null, '925525650', 'contacto@construccionesjeanjeconejo.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Raul', 'Tejedor ', 40, null, '918041141', 'contacto@cristaleria-artecristal.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 41, null, '', 'cristalkar2.0@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Maria Rosa', 'Bastos ', 42, null, '938656276', 'araujo@cubiertasaraujo.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Maria Teresa', 'Tajuelo ', 43, null, '925518055', 'cubiertasimpervi@cubiertasimpervi.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Sergio Paulo', 'Bastos Sousa', 44, null, '93 008 87 53', 'reser@cubiertasreser.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Rosanna', 'Peruzzi ', 45, null, '916372360', 'rosannacatering@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 46, null, '916973890', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Oscar', 'Oliver ', 47, null, '938958059', 'oliverdesaigues@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Julio', 'Reyes Oñoro', 48, null, '914862296', 'info@detectapci.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Carlos', 'Alcolea Rios', 49, null, '916433476', 'jalcolea@alcoleauto.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Antonio', 'Campillo ', 50, null, '916572535', 'gestion-proveedores@dima-sa.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose Vicente', 'Hervas ', 51, null, '962016229', 'josephervass@yahoo.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Dalmacio', 'Garcia ', 52, null, '916832544', 'contabilidad@cglam.net');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Monica', ' ', 53, null, '910117179', 'doctoreauto@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Carlos', 'Garcia ', 54, null, '918862183', 'info@echafan.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Luis Alberto', 'Torres ', 55, null, '976526236', 'gerencia@fotjomard.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 56, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 57, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 58, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Carlos', 'Benítez ', 59, null, '952776570', 'electrosurmarbella@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 60, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Alfonso', ' ', 61, null, '916520011', 'alsanchez@interbus.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Manuel', 'Perez ', 62, null, '915793282', 'huellas2@phuellas.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Sara', 'Aznar Posadas', 63, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Carmen', 'Alcazar ', 64, null, '918801471', 'ameydcarmen@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 65, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Maribel', 'Estéban ', 66, null, '911 57 42 48', 'emedemariposa@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 67, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Ana', 'Garcia Pavon', 68, null, '916677910', 'escuelainfantilcolores@yahoo.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Idoia', 'Santamaria Martinez', 69, null, '670 73 36 17', 'tupielalcobendas@yahoo.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Rosendo', 'Foullerat ', 70, null, '918865307', 'cerrajeriaymoldes@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'María del Carmen', 'García Martinez', 71, null, '918868253', 'gerencia@seish.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Alberto', 'Garcia ', 72, null, '911963828', 'miguelangel.puracarpinteria@gmail.com ');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Abraham', 'de Diego ', 73, null, '916526841', 'farolesdeartesania@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose', 'Andres Coronado', 74, null, '917111476', 'gerencia@kobel.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Pablo', 'Ortiz ', 75, null, '916680090', 'Joaquin@tavicce-marjop.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Angel', 'Perez Duran', 77, null, '', 'info@chikifiestas.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Consuelo', 'Granda ', 78, null, '650 374 281', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Celia', 'del Barrio ', 79, null, '913780009', 'myos.fisioterapia@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Antonia', 'San Martin Tellez', 80, null, '918504561', 'antonia-flores07@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Belen', 'Echevarria ', 81, null, '916343542', 'belen.echevarria@humiambiente.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Raquel', 'Somolinos ', 82, null, '916664086', 'raquel@forjasomolinos.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose Miguel', 'Arribas ', 83, null, '915430946', 'contacto@fotocopias-madrid.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Ana', 'Cadavieco ', 84, null, '915308374', 'info@fotoganga.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 85, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Francisco Javier', 'Garcia ', 86, null, '918706603', 'futurinox@hotmail.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Mari Paz', 'Abad ', 87, null, '934261769', 'mpabad@etl.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Ana Maria', 'Moreno Amado', 88, null, '949339438', 'moreno_amado@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jesus Javier', 'Martin ', 89, null, '', 'IMARTINP@telefonica.net ');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'José Luis', 'Herrero Garrido', 90, null, '916420740', 'heripaesther@gmail.com; heripa@infonegocio.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Patricia', 'Hernandez Benitez', 91, null, '933474856', 'administracion@hiperaluminio.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Manuela', 'Pizarro ', 92, null, '916607649', 'reservas@hotel-mirador.net');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 93, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Elvira', 'Pérez Parrilla', 94, null, '916597600', 'eperez@aytoalcobendas.org');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Isabel', 'Garcia ', 95, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Javier', 'Perez Vargas', 96, null, '91 328 03 44', 'instalaciondirecta@yahoo.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Andreu', 'Mendez Claver', 97, null, '', 'instal.lacionsandreu@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Carlos', 'Rué ', 98, null, '936580950', 'info@electrorue.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose Antonio', 'Sanchez Navarro', 99, null, '937507709', 'estilanacris@infonegocio.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Pablo', 'Nuñez ', 100, null, '34912797620', 'pablo.nunez@intexia.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Jose', 'Diaz Angulo', 101, null, '912940042', 'klunicocinas@santos.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 102, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Antonio', ' ', 103, null, '669 03 17 57', 'info@laspajaras.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Indru', 'Mani ', 104, null, '913690657', 'info@lexus.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Trifon', 'Naranjo ', 105, null, '913805239', 'limpiezas.naranjo@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Devora', 'Perez Hernandez', 106, null, '916764317', 'olga@limpiezas-zeus.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jorge', 'Cosials Ruiz', 107, null, '916428234', 'contacto@lineas-vida-conik.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Alberto', 'Maier ', 108, null, '916562483', 'amaiermarin@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Marcos', 'Salguero ', 109, null, '+34 654 33 41 62', 'marcosalguero.asesor@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 110, null, '', 'marcosalguero.asesor@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Miguel', 'Santes ', 111, null, '961260217', 'marmolessantes@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 112, null, '', 'info@mbubag.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Javier', 'Arrebola ', 113, null, '630543952', 'medinarotulos@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 114, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Ignacio', 'Hernández ', 115, null, '916818211', 'meyfa@meyfa.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Joan', 'Daranas ', 116, null, '933151398', 'prototipadosdaranas@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Laura', 'Alvarez ', 117, null, '', 'ascension@mintandrose.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Luis', 'Muñoz Navarro', 118, null, '914905576', 'mogatro@mogatro.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Esteban', 'Solís Aguilera', 119, null, '915304847', 'mudanzasgoyo@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Fabio', 'Serranos Hernández', 120, null, '91 661 12 04', 'm.serranos@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Luis Manuel', 'Arenas ', 121, null, '918012816', 'juanfrancisco@ebanisteriamarenas.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Dolores', 'Muñoz Fernandez', 123, null, '916266395', 'lola@nuevobano.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 124, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Lorena', ' ', 125, null, '910245394', 'info@pacificoshop.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jesus', 'Pamo ', 126, null, '916209286', 'contacto@pamoglass.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 127, null, '917970415', 'francisco.rivera@panflor.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Miguel Angel', 'Ruiz Cabanillas', 128, null, '913324949', 'contacto@pintaestetic.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Julian', 'Gil Serrano', 129, null, '913573714', 'peugeot@autosaravaca.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Maria', 'del Puerto Diaz', 130, null, '914092456', 'nunospasteleria@yahoo.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Pepe', 'Pizarro ', 131, null, '916790233', 'administracion@neoferrsl.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Julian', 'Martinez ', 132, null, '918733244', 'jmartinez@perfomar2000.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Emanuel', 'Florin Capatana', 133, null, '', 'mcapatanasl@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Raul', 'Adsuar ', 134, null, '96.297 87 69', 'persianasraser@persianasraser.com NOEMI');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Maria', 'Garcia ', 135, null, '918462299', 'hermanosserranito@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Julio Cesar', 'Aragon ', 136, null, '915441029', 'contacto@pilateselpatio.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 137, null, '638742015', 'ccaltuzarra@pinkfish.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Raul', 'Calderón Morlon', 139, null, '912492623', 'pinturas@decoracionescalderonsl.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Francesc', 'Encinas ', 140, null, '938499738', 'admin@tauxvalles.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose Antonio', ' ', 141, null, '916793257', 'contacto@plasticos-hernanz.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Daniel', 'de la Rosa Martinez', 142, null, '913552124', 'administracion@polsazener.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Victoriano', 'Sanchez Rodriguez', 144, null, '916845564', 'comercial@pr-montalve.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Mari', 'Carmen Martin', 145, null, '918862597', 'm.carmen.martin@live.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Joan', 'Raich ', 146, null, '938932441', 'raichsonoritzacions@telefonica.net');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Abelardo', 'Moreno Jimenez', 147, null, '', 'info@centrodelaccidentado.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Joaquin', 'Fernandez Serrano', 148, null, '914651859', 'fernandez_asistencia@yahoo.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Fernando', 'Pinilla ', 149, null, '913567102', 'clientes@pinilla-teyco.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Carlos', 'Pastor ', 150, null, '921198735', 'pastoracp@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Francisco Javier', ' ', 151, null, '916831021', 'maversursl@wanadoo.es - j.k.vertical@outlook.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Ivan', 'Tebar Largo', 152, null, '911136153', 'info@rehabilitaciones-linaresjaen.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 153, null, '', 'javier@renthability.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Juan Ramon', 'Pedroche Ovejero', 154, null, '918719483', 'administracion@solrepyma.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Manuel', 'Joven ', 155, null, '914485615', 'facturacion@copiaslara.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Francisco', 'Benedito ', 156, null, '916376706', 'pedidos@riegosprogramados.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose Manuel', 'Fuentes ', 157, null, '699915132', 'royma@rodapies-royma.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Adolfo', 'Martin ', 158, null, '916522947', 'rosan-nuevalinea@hotmail.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Julián', 'Sánchez Serrano', 159, null, '916545700 Ext. 203', 'juliansanchez@rosatex.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Cristina', 'Canales del Rey', 160, null, '949202602', 'info@rotativascanales.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Antonio', 'Doblas Alvarez', 161, null, '934313806', 'contacto@rotulos-doblas.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Vicente', 'Cuesta ', 162, null, '961472200', 'admon@jocu.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Carlos', 'Lopez Sanchez', 163, null, '925 86 63 29', 'micarevasalones@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose Manuel', 'Gomez ', 164, null, '925540320', 'conta@senoriodelmueble.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'David', 'Germán ', 165, null, '915348320', 'administracion@serenur.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Albert', 'Cata ', 166, null, '934268302', ' info@cataserveis.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Belen', 'Torroba Cadavieco', 167, null, '652 64 35 08', 'belen_torr@yahoo.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Miguel', 'Vera Hernandez', 168, null, '917256945', 'mvera@tajusa.net');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 169, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'José Antonio', 'García Nuevo', 170, null, '918940255', 'garcianuevo@telefonica.net');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Julian', 'Gil Serrano', 129, null, '913078815', 'peugeot@autosaravaca.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Maria del Pilar', 'Camacho Collado', 172, null, '91 895 33 43', 'comercialhervi@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Monica', 'Tirado ', 174, null, '914272699', 'napsisbobath@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Pascual', 'Cervera Vicente', 175, null, '962779424', 'tisoelevadores@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Alfonso', 'Garcia ', 176, null, '914300922', 'toldosmoratalaz@gmx.es');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Blas', 'Hergueta ', 177, null, '916464417', 'facturas@toldosmostoles.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Roberto', 'Alonso ', 178, null, '912 77 59 67', 'pvt2017@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Luis', 'Benito Palomo', 179, null, '925775194', 'tolintema@tolintema.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Alejandro', 'Gomez ', 180, null, '925232810', 'tolpersol@hotmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Javier', 'Priego del Hoyo', 181, null, '918124593', 'admontorrejoncars@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'David', 'Gual Gaju', 182, null, '933811131', 'zenitvertical@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Luis Miguel', 'Lopez Mateo', 183, null, '915053848', 'comercial@cardiberica.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'', ' ', 184, null, '', '');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Carlos', 'Rodriguez Garcia', 185, null, '933252216', 'trofeosobelisco3@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Eugenio', 'Bellon ', 186, null, '914994452', 'eugenio@legondigital.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Belen', 'Ruano Puente', 187, null, '918530054', 'info@pulsoanimal.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Jose', 'Guio ', 188, null, '916326578', 'vidriofusion1994@gmail.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Fernando', 'Martinez ', 189, null, '915333739', 'info@villasal.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Marc', 'Quintana ', 190, null, '931139111', 'comercial@windecoretols.com');</t>
+  </si>
+  <si>
+    <t>INSERT INTO contactos VALUES (null,'Mocanu', 'Dumitru ', 191, null, '918013986', 'xventreunidos@yahoo.com');</t>
   </si>
 </sst>
 </file>
@@ -10897,7 +11455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10908,7 +11466,7 @@
   <dimension ref="A1:CE192"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
@@ -53215,7 +53773,7 @@
         <v>1256</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="0">CONCATENATE(A3,"'"&amp;C3&amp;"'"&amp;","," ",D3,","," ",E3,","," ",F3,","," ",G3,","," ",H3,","," ",I3,","," ",J3,","," ","'"&amp;K3&amp;"'",","," ","'"&amp;L3&amp;"'",");")</f>
+        <f t="shared" ref="M3:M60" si="0">CONCATENATE(A3,"'"&amp;C3&amp;"'"&amp;","," ",D3,","," ",E3,","," ",F3,","," ",G3,","," ",H3,","," ",I3,","," ",J3,","," ","'"&amp;K3&amp;"'",","," ","'"&amp;L3&amp;"'",");")</f>
         <v>INSERT INTO clientes VALUES(null,'SANG JOONG LEE ', null, null, null, null, null, null, null, 'ALTA', 'TLC');</v>
       </c>
       <c r="N3" t="s">
@@ -61741,10 +62299,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192:J192"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60:I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -61755,7 +62313,7 @@
     <col min="7" max="7" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>1247</v>
       </c>
@@ -61778,7 +62336,10 @@
         <v>814</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45">
+    <row r="2" spans="1:15" ht="45">
+      <c r="A2" t="s">
+        <v>1746</v>
+      </c>
       <c r="B2" t="s">
         <v>1343</v>
       </c>
@@ -61788,20 +62349,33 @@
       <c r="D2" s="68">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>1529</v>
+      </c>
       <c r="F2" s="4">
         <v>936915667</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="I2">
+      <c r="H2" t="str">
+        <f>CONCATENATE(A2,"'",B2,"', '",C2,"', ",D2,", ",E2,", '",F2,"', '",G2,"');")</f>
+        <v>INSERT INTO contactos VALUES (null,'Maria del Carmen', 'Maiquez ', 1, null, '936915667', 'carmenpatchwork@telefonica.net');</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30">
+    <row r="3" spans="1:15" ht="30">
+      <c r="A3" t="s">
+        <v>1746</v>
+      </c>
       <c r="B3" t="s">
         <v>1265</v>
       </c>
@@ -61811,20 +62385,33 @@
       <c r="D3" s="68">
         <v>2</v>
       </c>
+      <c r="E3" t="s">
+        <v>1529</v>
+      </c>
       <c r="F3" s="4">
         <v>915445338</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="I3">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">CONCATENATE(A3,"'",B3,"', '",C3,"', ",D3,", ",E3,", '",F3,"', '",G3,"');")</f>
+        <v>INSERT INTO contactos VALUES (null,'Sang', 'Joong Lee', 2, null, '915445338', 'occ2000@gmail.com');</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:15" ht="45">
+      <c r="A4" t="s">
+        <v>1746</v>
+      </c>
       <c r="B4" t="s">
         <v>1266</v>
       </c>
@@ -61834,20 +62421,33 @@
       <c r="D4" s="68">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>1529</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>800</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="I4">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Javier', 'Huertas ', 3, null, '91 696 73 78 ', 'javier.huertas@grupohastinik.com');</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45">
+    <row r="5" spans="1:15" ht="45">
+      <c r="A5" t="s">
+        <v>1746</v>
+      </c>
       <c r="B5" t="s">
         <v>1267</v>
       </c>
@@ -61857,20 +62457,33 @@
       <c r="D5" s="68">
         <v>4</v>
       </c>
+      <c r="E5" t="s">
+        <v>1529</v>
+      </c>
       <c r="F5" s="4">
         <v>696414243</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="I5">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Enrique', 'Lopez Eusebio', 4, null, '696414243', 'agroser.ele@telefonica.net');</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="N5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45">
+    <row r="6" spans="1:15" ht="45">
+      <c r="A6" t="s">
+        <v>1746</v>
+      </c>
       <c r="B6" t="s">
         <v>1268</v>
       </c>
@@ -61880,20 +62493,33 @@
       <c r="D6" s="68">
         <v>5</v>
       </c>
+      <c r="E6" t="s">
+        <v>1529</v>
+      </c>
       <c r="F6" s="4">
         <v>916434579</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="I6">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Daniel', 'Esteban Herrador', 5, null, '916434579', 'danielpintores@hotmail.com');</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1751</v>
+      </c>
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45">
+    <row r="7" spans="1:15" ht="45">
+      <c r="A7" t="s">
+        <v>1746</v>
+      </c>
       <c r="B7" t="s">
         <v>1344</v>
       </c>
@@ -61903,20 +62529,33 @@
       <c r="D7" s="68">
         <v>6</v>
       </c>
+      <c r="E7" t="s">
+        <v>1529</v>
+      </c>
       <c r="F7" s="7">
         <v>655580602</v>
       </c>
       <c r="G7" s="63" t="s">
         <v>537</v>
       </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Jose', 'Herranz del Espiritu Santo', 6, null, '655580602', 'info@aleahosteleria.com');</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60">
+    <row r="8" spans="1:15" ht="60">
+      <c r="A8" t="s">
+        <v>1746</v>
+      </c>
       <c r="B8" t="s">
         <v>1257</v>
       </c>
@@ -61926,50 +62565,89 @@
       <c r="D8" s="68">
         <v>7</v>
       </c>
+      <c r="E8" t="s">
+        <v>1529</v>
+      </c>
       <c r="F8" s="4">
         <v>916454698</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="I8">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Jorge', ' ', 7, null, '916454698', 'contacto@aluminios-hermanos-garcia.com');</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1753</v>
+      </c>
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30">
+    <row r="9" spans="1:15" ht="30">
+      <c r="A9" t="s">
+        <v>1746</v>
+      </c>
       <c r="B9" s="34"/>
       <c r="D9" s="68">
         <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1529</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="35" t="s">
         <v>905</v>
       </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', '', 8, null, '', 'john@agenciayou.com');</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1754</v>
+      </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>1746</v>
+      </c>
       <c r="B10" s="6"/>
       <c r="D10" s="68">
         <v>9</v>
       </c>
+      <c r="E10" t="s">
+        <v>1529</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="25"/>
-      <c r="I10">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', '', 9, null, '', '');</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1755</v>
+      </c>
+      <c r="N10">
         <v>9</v>
       </c>
-      <c r="J10" t="s">
+      <c r="O10" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="75">
+    <row r="11" spans="1:15" ht="75">
+      <c r="A11" t="s">
+        <v>1746</v>
+      </c>
       <c r="B11" t="s">
         <v>1271</v>
       </c>
@@ -61979,20 +62657,33 @@
       <c r="D11" s="68">
         <v>10</v>
       </c>
+      <c r="E11" t="s">
+        <v>1529</v>
+      </c>
       <c r="F11" s="4">
         <v>916049879</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="I11">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Luis', 'Vicente de Frutos', 10, null, '916049879', 'infasa@aluminios-infasa-madrid.com');</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1756</v>
+      </c>
+      <c r="N11">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="O11" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="45">
+    <row r="12" spans="1:15" ht="45">
+      <c r="A12" t="s">
+        <v>1746</v>
+      </c>
       <c r="B12" t="s">
         <v>1273</v>
       </c>
@@ -62001,19 +62692,32 @@
       </c>
       <c r="D12" s="68">
         <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1529</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="39" t="s">
         <v>850</v>
       </c>
-      <c r="I12">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Alvaro', 'Ybarra Zavala', 11, null, '', 'photo@alvaroybarra.com');</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1757</v>
+      </c>
+      <c r="N12">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
+      <c r="O12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45">
+    <row r="13" spans="1:15" ht="45">
+      <c r="A13" t="s">
+        <v>1746</v>
+      </c>
       <c r="B13" t="s">
         <v>1274</v>
       </c>
@@ -62023,20 +62727,33 @@
       <c r="D13" s="68">
         <v>12</v>
       </c>
+      <c r="E13" t="s">
+        <v>1529</v>
+      </c>
       <c r="F13" s="4">
         <v>911265333</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="I13">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Fernando', 'Blas Verdugo', 12, null, '911265333', 'anfervertical@hotmail.es');</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1758</v>
+      </c>
+      <c r="N13">
         <v>12</v>
       </c>
-      <c r="J13" t="s">
+      <c r="O13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:15" ht="30">
+      <c r="A14" t="s">
+        <v>1746</v>
+      </c>
       <c r="B14" t="s">
         <v>1276</v>
       </c>
@@ -62046,20 +62763,33 @@
       <c r="D14" s="68">
         <v>13</v>
       </c>
+      <c r="E14" t="s">
+        <v>1529</v>
+      </c>
       <c r="F14" s="4">
         <v>913839119</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>852</v>
       </c>
-      <c r="I14">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Favio', 'Zambelli ', 13, null, '913839119', 'favio@labrujula.eu');</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1759</v>
+      </c>
+      <c r="N14">
         <v>13</v>
       </c>
-      <c r="J14" t="s">
+      <c r="O14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="60">
+    <row r="15" spans="1:15" ht="60">
+      <c r="A15" t="s">
+        <v>1746</v>
+      </c>
       <c r="B15" t="s">
         <v>1345</v>
       </c>
@@ -62069,20 +62799,33 @@
       <c r="D15" s="68">
         <v>14</v>
       </c>
+      <c r="E15" t="s">
+        <v>1529</v>
+      </c>
       <c r="F15" s="4">
         <v>916702554</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>907</v>
       </c>
-      <c r="I15">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose Aurelio', 'Moral ', 14, null, '916702554', 'isabelpinilla@area-proyectos.es');</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1760</v>
+      </c>
+      <c r="N15">
         <v>14</v>
       </c>
-      <c r="J15" t="s">
+      <c r="O15" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="60">
+    <row r="16" spans="1:15" ht="60">
+      <c r="A16" t="s">
+        <v>1746</v>
+      </c>
       <c r="B16" t="s">
         <v>1277</v>
       </c>
@@ -62092,20 +62835,33 @@
       <c r="D16" s="68">
         <v>15</v>
       </c>
+      <c r="E16" t="s">
+        <v>1529</v>
+      </c>
       <c r="F16" s="4">
         <v>917385088</v>
       </c>
       <c r="G16" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="I16">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Domingo', 'Perez Marín', 15, null, '917385088', 'administracion@argumosamotor.es');</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1761</v>
+      </c>
+      <c r="N16">
         <v>15</v>
       </c>
-      <c r="J16" t="s">
+      <c r="O16" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="45">
+    <row r="17" spans="1:15" ht="45">
+      <c r="A17" t="s">
+        <v>1746</v>
+      </c>
       <c r="B17" t="s">
         <v>1274</v>
       </c>
@@ -62115,20 +62871,33 @@
       <c r="D17" s="68">
         <v>16</v>
       </c>
+      <c r="E17" t="s">
+        <v>1529</v>
+      </c>
       <c r="F17" s="4">
         <v>914472329</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>854</v>
       </c>
-      <c r="I17">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Fernando', 'de Miguel ', 16, null, '914472329', 'artextpaisajismo@yahoo.es');</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1762</v>
+      </c>
+      <c r="N17">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
+      <c r="O17" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="45">
+    <row r="18" spans="1:15" ht="45">
+      <c r="A18" t="s">
+        <v>1746</v>
+      </c>
       <c r="B18" t="s">
         <v>1259</v>
       </c>
@@ -62138,20 +62907,33 @@
       <c r="D18" s="68">
         <v>17</v>
       </c>
+      <c r="E18" t="s">
+        <v>1529</v>
+      </c>
       <c r="F18" s="4">
         <v>952515086</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="I18">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Antonio', 'Martin ', 17, null, '952515086', 'autocaresamartin@gmail.com');</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1763</v>
+      </c>
+      <c r="N18">
         <v>17</v>
       </c>
-      <c r="J18" t="s">
+      <c r="O18" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="45">
+    <row r="19" spans="1:15" ht="45">
+      <c r="A19" t="s">
+        <v>1746</v>
+      </c>
       <c r="B19" t="s">
         <v>1279</v>
       </c>
@@ -62161,20 +62943,33 @@
       <c r="D19" s="68">
         <v>18</v>
       </c>
+      <c r="E19" t="s">
+        <v>1529</v>
+      </c>
       <c r="F19" s="32">
         <v>918757670</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>836</v>
       </c>
-      <c r="I19">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Daniela', 'Gallardo ', 18, null, '918757670', 'dgallardo@azulejospena.com');</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1764</v>
+      </c>
+      <c r="N19">
         <v>18</v>
       </c>
-      <c r="J19" t="s">
+      <c r="O19" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="45">
+    <row r="20" spans="1:15" ht="45">
+      <c r="A20" t="s">
+        <v>1746</v>
+      </c>
       <c r="B20"/>
       <c r="C20" t="s">
         <v>1378</v>
@@ -62182,20 +62977,33 @@
       <c r="D20" s="68">
         <v>19</v>
       </c>
+      <c r="E20" t="s">
+        <v>1529</v>
+      </c>
       <c r="F20" s="34">
         <v>619685724</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>887</v>
       </c>
-      <c r="I20">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 19, null, '619685724', 'bellezaenvena@gmail.com');</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1765</v>
+      </c>
+      <c r="N20">
         <v>19</v>
       </c>
-      <c r="J20" t="s">
+      <c r="O20" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="45">
+    <row r="21" spans="1:15" ht="45">
+      <c r="A21" t="s">
+        <v>1746</v>
+      </c>
       <c r="B21" t="s">
         <v>1278</v>
       </c>
@@ -62205,20 +63013,33 @@
       <c r="D21" s="68">
         <v>20</v>
       </c>
+      <c r="E21" t="s">
+        <v>1529</v>
+      </c>
       <c r="F21" s="34" t="s">
         <v>896</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>897</v>
       </c>
-      <c r="I21">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Miguel', 'García ', 20, null, '93 408 63 88', 'miguel.garcia@bioclever.com');</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1766</v>
+      </c>
+      <c r="N21">
         <v>20</v>
       </c>
-      <c r="J21" t="s">
+      <c r="O21" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="45">
+    <row r="22" spans="1:15" ht="45">
+      <c r="A22" t="s">
+        <v>1746</v>
+      </c>
       <c r="B22" t="s">
         <v>1280</v>
       </c>
@@ -62228,20 +63049,33 @@
       <c r="D22" s="68">
         <v>21</v>
       </c>
+      <c r="E22" t="s">
+        <v>1529</v>
+      </c>
       <c r="F22" s="4">
         <v>918899903</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="I22">
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Cornel', 'Petru ', 21, null, '918899903', 'bricolagerodil@gmail.com');</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1767</v>
+      </c>
+      <c r="N22">
         <v>21</v>
       </c>
-      <c r="J22" t="s">
+      <c r="O22" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="45">
+    <row r="23" spans="1:15" ht="45">
+      <c r="A23" t="s">
+        <v>1746</v>
+      </c>
       <c r="B23" t="s">
         <v>1346</v>
       </c>
@@ -62251,20 +63085,33 @@
       <c r="D23" s="68">
         <v>22</v>
       </c>
+      <c r="E23" t="s">
+        <v>1529</v>
+      </c>
       <c r="F23" s="4">
         <v>916607320</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>637</v>
       </c>
-      <c r="I23">
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose Fernando', 'Bernal ', 22, null, '916607320', 'jfbernaltolmo@hotmail.com');</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1768</v>
+      </c>
+      <c r="N23">
         <v>22</v>
       </c>
-      <c r="J23" t="s">
+      <c r="O23" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="30">
+    <row r="24" spans="1:15" ht="30">
+      <c r="A24" t="s">
+        <v>1746</v>
+      </c>
       <c r="B24" t="s">
         <v>1281</v>
       </c>
@@ -62274,20 +63121,33 @@
       <c r="D24" s="68">
         <v>23</v>
       </c>
+      <c r="E24" t="s">
+        <v>1529</v>
+      </c>
       <c r="F24" s="34">
         <v>913993179</v>
       </c>
       <c r="G24" s="34" t="s">
         <v>893</v>
       </c>
-      <c r="I24">
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Blanca', 'Vizoso ', 23, null, '913993179', 'bvizoso@btob.es ');</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1769</v>
+      </c>
+      <c r="N24">
         <v>23</v>
       </c>
-      <c r="J24" t="s">
+      <c r="O24" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="60">
+    <row r="25" spans="1:15" ht="60">
+      <c r="A25" t="s">
+        <v>1746</v>
+      </c>
       <c r="B25" t="s">
         <v>1282</v>
       </c>
@@ -62297,20 +63157,33 @@
       <c r="D25" s="68">
         <v>24</v>
       </c>
+      <c r="E25" t="s">
+        <v>1529</v>
+      </c>
       <c r="F25" s="4">
         <v>916540323</v>
       </c>
       <c r="G25" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="I25">
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Nuria', 'Varas ', 24, null, '916540323', 'judicial@bufetevarasmoreno.com');</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1770</v>
+      </c>
+      <c r="N25">
         <v>24</v>
       </c>
-      <c r="J25" t="s">
+      <c r="O25" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="30">
+    <row r="26" spans="1:15" ht="30">
+      <c r="A26" t="s">
+        <v>1746</v>
+      </c>
       <c r="B26" t="s">
         <v>1347</v>
       </c>
@@ -62320,20 +63193,33 @@
       <c r="D26" s="68">
         <v>25</v>
       </c>
+      <c r="E26" t="s">
+        <v>1529</v>
+      </c>
       <c r="F26" s="4">
         <v>925508286</v>
       </c>
       <c r="G26" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="I26">
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose Luis', 'Danzaner ', 25, null, '925508286', 'c.blanca@caldetec.es');</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1771</v>
+      </c>
+      <c r="N26">
         <v>25</v>
       </c>
-      <c r="J26" t="s">
+      <c r="O26" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="45">
+    <row r="27" spans="1:15" ht="45">
+      <c r="A27" t="s">
+        <v>1746</v>
+      </c>
       <c r="B27" t="s">
         <v>1283</v>
       </c>
@@ -62342,19 +63228,32 @@
       </c>
       <c r="D27" s="68">
         <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1529</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="I27">
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Cristina', 'Gomez Morales', 26, null, '', 'calmacjewels@gmail.com');</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1772</v>
+      </c>
+      <c r="N27">
         <v>26</v>
       </c>
-      <c r="J27" t="s">
+      <c r="O27" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="45">
+    <row r="28" spans="1:15" ht="45">
+      <c r="A28" t="s">
+        <v>1746</v>
+      </c>
       <c r="B28" t="s">
         <v>1348</v>
       </c>
@@ -62364,20 +63263,33 @@
       <c r="D28" s="68">
         <v>27</v>
       </c>
+      <c r="E28" t="s">
+        <v>1529</v>
+      </c>
       <c r="F28" s="4">
         <v>913327795</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="I28">
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Maria Isabel', 'Montoto ', 27, null, '913327795', 'eurypelma2@yahoo.es');</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1773</v>
+      </c>
+      <c r="N28">
         <v>27</v>
       </c>
-      <c r="J28" t="s">
+      <c r="O28" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="30">
+    <row r="29" spans="1:15" ht="30">
+      <c r="A29" t="s">
+        <v>1746</v>
+      </c>
       <c r="B29" t="s">
         <v>1349</v>
       </c>
@@ -62386,19 +63298,32 @@
       </c>
       <c r="D29" s="68">
         <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1529</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="I29">
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Ignacio', 'Herranz Sanjuan', 28, null, '', 'viexcom@hotmail.com');</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1774</v>
+      </c>
+      <c r="N29">
         <v>28</v>
       </c>
-      <c r="J29" t="s">
+      <c r="O29" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="45">
+    <row r="30" spans="1:15" ht="45">
+      <c r="A30" t="s">
+        <v>1746</v>
+      </c>
       <c r="B30" t="s">
         <v>1286</v>
       </c>
@@ -62408,20 +63333,33 @@
       <c r="D30" s="68">
         <v>29</v>
       </c>
+      <c r="E30" t="s">
+        <v>1529</v>
+      </c>
       <c r="F30" s="4" t="s">
         <v>801</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="I30">
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Santiago', 'Menendez ', 29, null, '91 854 30 69', 'mpcanadianhouse.sl@gmail.com');</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1775</v>
+      </c>
+      <c r="N30">
         <v>29</v>
       </c>
-      <c r="J30" t="s">
+      <c r="O30" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="45">
+    <row r="31" spans="1:15" ht="45">
+      <c r="A31" t="s">
+        <v>1746</v>
+      </c>
       <c r="B31" t="s">
         <v>1287</v>
       </c>
@@ -62431,20 +63369,33 @@
       <c r="D31" s="68">
         <v>30</v>
       </c>
+      <c r="E31" t="s">
+        <v>1529</v>
+      </c>
       <c r="F31" s="4">
         <v>938210794</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>849</v>
       </c>
-      <c r="I31">
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Margarita', 'Marmi ', 30, null, '938210794', 'marmiserrat@gmail.com');</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1776</v>
+      </c>
+      <c r="N31">
         <v>30</v>
       </c>
-      <c r="J31" t="s">
+      <c r="O31" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="30">
+    <row r="32" spans="1:15" ht="30">
+      <c r="A32" t="s">
+        <v>1746</v>
+      </c>
       <c r="B32" t="s">
         <v>1350</v>
       </c>
@@ -62454,20 +63405,33 @@
       <c r="D32" s="68">
         <v>31</v>
       </c>
+      <c r="E32" t="s">
+        <v>1529</v>
+      </c>
       <c r="F32" s="4">
         <v>918729956</v>
       </c>
       <c r="G32" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="I32">
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Miguel Ángel', 'Colas ', 31, null, '918729956', 'colas@conmadera.es');</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1777</v>
+      </c>
+      <c r="N32">
         <v>31</v>
       </c>
-      <c r="J32" t="s">
+      <c r="O32" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="45">
+    <row r="33" spans="1:15" ht="45">
+      <c r="A33" t="s">
+        <v>1746</v>
+      </c>
       <c r="B33" t="s">
         <v>1289</v>
       </c>
@@ -62477,20 +63441,33 @@
       <c r="D33" s="68">
         <v>32</v>
       </c>
+      <c r="E33" t="s">
+        <v>1529</v>
+      </c>
       <c r="F33" s="4">
         <v>918701428</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="I33">
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Victoria', 'Aguilar Fuertes', 32, null, '918701428', 'v.aguilar@carroceriasaguilar.com');</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N33">
         <v>32</v>
       </c>
-      <c r="J33" t="s">
+      <c r="O33" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="30">
+    <row r="34" spans="1:15" ht="30">
+      <c r="A34" t="s">
+        <v>1746</v>
+      </c>
       <c r="B34" t="s">
         <v>1290</v>
       </c>
@@ -62500,20 +63477,33 @@
       <c r="D34" s="68">
         <v>33</v>
       </c>
+      <c r="E34" t="s">
+        <v>1529</v>
+      </c>
       <c r="F34" s="4">
         <v>911152751</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="I34">
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Carlos', 'Gomez ', 33, null, '911152751', 'info@cateringbaru.com');</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1779</v>
+      </c>
+      <c r="N34">
         <v>33</v>
       </c>
-      <c r="J34" t="s">
+      <c r="O34" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="30">
+    <row r="35" spans="1:15" ht="30">
+      <c r="A35" t="s">
+        <v>1746</v>
+      </c>
       <c r="B35" t="s">
         <v>1290</v>
       </c>
@@ -62523,14 +63513,27 @@
       <c r="D35" s="68">
         <v>33</v>
       </c>
+      <c r="E35" t="s">
+        <v>1529</v>
+      </c>
       <c r="F35" s="4">
         <v>911152751</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" ht="45">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Carlos', 'Gomez ', 33, null, '911152751', 'info@cateringbaru.com');</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="45">
+      <c r="A36" t="s">
+        <v>1746</v>
+      </c>
       <c r="B36" t="s">
         <v>1286</v>
       </c>
@@ -62540,20 +63543,33 @@
       <c r="D36" s="68">
         <v>35</v>
       </c>
+      <c r="E36" t="s">
+        <v>1529</v>
+      </c>
       <c r="F36" s="4">
         <v>916978687</v>
       </c>
       <c r="G36" s="24" t="s">
         <v>643</v>
       </c>
-      <c r="I36">
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Santiago', 'Morales ', 35, null, '916978687', 'rm@recuperacionesmorales.com');</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1780</v>
+      </c>
+      <c r="N36">
         <v>35</v>
       </c>
-      <c r="J36" t="s">
+      <c r="O36" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="45">
+    <row r="37" spans="1:15" ht="45">
+      <c r="A37" t="s">
+        <v>1746</v>
+      </c>
       <c r="B37" t="s">
         <v>1351</v>
       </c>
@@ -62563,20 +63579,33 @@
       <c r="D37" s="68">
         <v>36</v>
       </c>
+      <c r="E37" t="s">
+        <v>1529</v>
+      </c>
       <c r="F37" s="4">
         <v>949201165</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="I37">
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Luis', 'Diaz Gonzalez', 36, null, '949201165', 'juanldiaz@cdiazsa.com');</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1781</v>
+      </c>
+      <c r="N37">
         <v>36</v>
       </c>
-      <c r="J37" t="s">
+      <c r="O37" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="60">
+    <row r="38" spans="1:15" ht="60">
+      <c r="A38" t="s">
+        <v>1746</v>
+      </c>
       <c r="B38" t="s">
         <v>1277</v>
       </c>
@@ -62586,20 +63615,33 @@
       <c r="D38" s="68">
         <v>37</v>
       </c>
+      <c r="E38" t="s">
+        <v>1529</v>
+      </c>
       <c r="F38" s="34" t="s">
         <v>881</v>
       </c>
       <c r="G38" s="34" t="s">
         <v>882</v>
       </c>
-      <c r="I38">
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Domingo', 'Ortega ', 37, null, '91 697 38 90   ', 'domingo.ortega@comercialsermasa.com');</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1782</v>
+      </c>
+      <c r="N38">
         <v>37</v>
       </c>
-      <c r="J38" t="s">
+      <c r="O38" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>1746</v>
+      </c>
       <c r="B39"/>
       <c r="C39" t="s">
         <v>1378</v>
@@ -62607,16 +63649,29 @@
       <c r="D39" s="68">
         <v>38</v>
       </c>
+      <c r="E39" t="s">
+        <v>1529</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="25"/>
-      <c r="I39">
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 38, null, '', '');</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1783</v>
+      </c>
+      <c r="N39">
         <v>38</v>
       </c>
-      <c r="J39" t="s">
+      <c r="O39" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="60">
+    <row r="40" spans="1:15" ht="60">
+      <c r="A40" t="s">
+        <v>1746</v>
+      </c>
       <c r="B40" t="s">
         <v>1291</v>
       </c>
@@ -62626,20 +63681,33 @@
       <c r="D40" s="68">
         <v>39</v>
       </c>
+      <c r="E40" t="s">
+        <v>1529</v>
+      </c>
       <c r="F40" s="4">
         <v>925525650</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>856</v>
       </c>
-      <c r="I40">
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Jesus', 'Sanchez ', 39, null, '925525650', 'contacto@construccionesjeanjeconejo.com');</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1784</v>
+      </c>
+      <c r="N40">
         <v>39</v>
       </c>
-      <c r="J40" t="s">
+      <c r="O40" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="60">
+    <row r="41" spans="1:15" ht="60">
+      <c r="A41" t="s">
+        <v>1746</v>
+      </c>
       <c r="B41" t="s">
         <v>1292</v>
       </c>
@@ -62649,20 +63717,33 @@
       <c r="D41" s="68">
         <v>40</v>
       </c>
+      <c r="E41" t="s">
+        <v>1529</v>
+      </c>
       <c r="F41" s="4">
         <v>918041141</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="I41">
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Raul', 'Tejedor ', 40, null, '918041141', 'contacto@cristaleria-artecristal.es');</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1785</v>
+      </c>
+      <c r="N41">
         <v>40</v>
       </c>
-      <c r="J41" t="s">
+      <c r="O41" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="45">
+    <row r="42" spans="1:15" ht="45">
+      <c r="A42" t="s">
+        <v>1746</v>
+      </c>
       <c r="B42"/>
       <c r="C42" t="s">
         <v>1378</v>
@@ -62670,18 +63751,31 @@
       <c r="D42" s="68">
         <v>41</v>
       </c>
+      <c r="E42" t="s">
+        <v>1529</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="25" t="s">
         <v>968</v>
       </c>
-      <c r="I42">
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 41, null, '', 'cristalkar2.0@gmail.com');</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1786</v>
+      </c>
+      <c r="N42">
         <v>41</v>
       </c>
-      <c r="J42" t="s">
+      <c r="O42" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="45">
+    <row r="43" spans="1:15" ht="45">
+      <c r="A43" t="s">
+        <v>1746</v>
+      </c>
       <c r="B43" t="s">
         <v>1352</v>
       </c>
@@ -62691,20 +63785,33 @@
       <c r="D43" s="68">
         <v>42</v>
       </c>
+      <c r="E43" t="s">
+        <v>1529</v>
+      </c>
       <c r="F43" s="4">
         <v>938656276</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="I43">
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Maria Rosa', 'Bastos ', 42, null, '938656276', 'araujo@cubiertasaraujo.com');</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1787</v>
+      </c>
+      <c r="N43">
         <v>42</v>
       </c>
-      <c r="J43" t="s">
+      <c r="O43" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="60">
+    <row r="44" spans="1:15" ht="60">
+      <c r="A44" t="s">
+        <v>1746</v>
+      </c>
       <c r="B44" t="s">
         <v>1353</v>
       </c>
@@ -62714,20 +63821,33 @@
       <c r="D44" s="68">
         <v>43</v>
       </c>
+      <c r="E44" t="s">
+        <v>1529</v>
+      </c>
       <c r="F44" s="4">
         <v>925518055</v>
       </c>
       <c r="G44" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="I44">
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Maria Teresa', 'Tajuelo ', 43, null, '925518055', 'cubiertasimpervi@cubiertasimpervi.com');</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1788</v>
+      </c>
+      <c r="N44">
         <v>43</v>
       </c>
-      <c r="J44" t="s">
+      <c r="O44" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="45">
+    <row r="45" spans="1:15" ht="45">
+      <c r="A45" t="s">
+        <v>1746</v>
+      </c>
       <c r="B45" t="s">
         <v>1354</v>
       </c>
@@ -62737,20 +63857,33 @@
       <c r="D45" s="68">
         <v>44</v>
       </c>
+      <c r="E45" t="s">
+        <v>1529</v>
+      </c>
       <c r="F45" s="4" t="s">
         <v>802</v>
       </c>
       <c r="G45" s="24" t="s">
         <v>858</v>
       </c>
-      <c r="I45">
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Sergio Paulo', 'Bastos Sousa', 44, null, '93 008 87 53', 'reser@cubiertasreser.com');</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1789</v>
+      </c>
+      <c r="N45">
         <v>44</v>
       </c>
-      <c r="J45" t="s">
+      <c r="O45" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="45">
+    <row r="46" spans="1:15" ht="45">
+      <c r="A46" t="s">
+        <v>1746</v>
+      </c>
       <c r="B46" t="s">
         <v>1293</v>
       </c>
@@ -62760,20 +63893,33 @@
       <c r="D46" s="68">
         <v>45</v>
       </c>
+      <c r="E46" t="s">
+        <v>1529</v>
+      </c>
       <c r="F46" s="4">
         <v>916372360</v>
       </c>
       <c r="G46" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="I46">
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Rosanna', 'Peruzzi ', 45, null, '916372360', 'rosannacatering@gmail.com');</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1790</v>
+      </c>
+      <c r="N46">
         <v>45</v>
       </c>
-      <c r="J46" t="s">
+      <c r="O46" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>1746</v>
+      </c>
       <c r="B47"/>
       <c r="C47" t="s">
         <v>1378</v>
@@ -62781,18 +63927,31 @@
       <c r="D47" s="68">
         <v>46</v>
       </c>
+      <c r="E47" t="s">
+        <v>1529</v>
+      </c>
       <c r="F47" s="34">
         <v>916973890</v>
       </c>
       <c r="G47" s="34"/>
-      <c r="I47">
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 46, null, '916973890', '');</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1791</v>
+      </c>
+      <c r="N47">
         <v>46</v>
       </c>
-      <c r="J47" t="s">
+      <c r="O47" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="45">
+    <row r="48" spans="1:15" ht="45">
+      <c r="A48" t="s">
+        <v>1746</v>
+      </c>
       <c r="B48" t="s">
         <v>1294</v>
       </c>
@@ -62802,20 +63961,33 @@
       <c r="D48" s="68">
         <v>47</v>
       </c>
+      <c r="E48" t="s">
+        <v>1529</v>
+      </c>
       <c r="F48" s="4">
         <v>938958059</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="I48">
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Oscar', 'Oliver ', 47, null, '938958059', 'oliverdesaigues@gmail.com');</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1792</v>
+      </c>
+      <c r="N48">
         <v>47</v>
       </c>
-      <c r="J48" t="s">
+      <c r="O48" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="30">
+    <row r="49" spans="1:15" ht="30">
+      <c r="A49" t="s">
+        <v>1746</v>
+      </c>
       <c r="B49" t="s">
         <v>1295</v>
       </c>
@@ -62825,20 +63997,33 @@
       <c r="D49" s="68">
         <v>48</v>
       </c>
+      <c r="E49" t="s">
+        <v>1529</v>
+      </c>
       <c r="F49" s="4">
         <v>914862296</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="I49">
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Julio', 'Reyes Oñoro', 48, null, '914862296', 'info@detectapci.com');</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1793</v>
+      </c>
+      <c r="N49">
         <v>48</v>
       </c>
-      <c r="J49" t="s">
+      <c r="O49" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="45">
+    <row r="50" spans="1:15" ht="45">
+      <c r="A50" t="s">
+        <v>1746</v>
+      </c>
       <c r="B50" t="s">
         <v>1355</v>
       </c>
@@ -62848,20 +64033,33 @@
       <c r="D50" s="68">
         <v>49</v>
       </c>
+      <c r="E50" t="s">
+        <v>1529</v>
+      </c>
       <c r="F50" s="4">
         <v>916433476</v>
       </c>
       <c r="G50" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="I50">
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Carlos', 'Alcolea Rios', 49, null, '916433476', 'jalcolea@alcoleauto.com');</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1794</v>
+      </c>
+      <c r="N50">
         <v>49</v>
       </c>
-      <c r="J50" t="s">
+      <c r="O50" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="60">
+    <row r="51" spans="1:15" ht="60">
+      <c r="A51" t="s">
+        <v>1746</v>
+      </c>
       <c r="B51" t="s">
         <v>1259</v>
       </c>
@@ -62871,20 +64069,33 @@
       <c r="D51" s="68">
         <v>50</v>
       </c>
+      <c r="E51" t="s">
+        <v>1529</v>
+      </c>
       <c r="F51" s="4">
         <v>916572535</v>
       </c>
       <c r="G51" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="I51">
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Antonio', 'Campillo ', 50, null, '916572535', 'gestion-proveedores@dima-sa.com');</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1795</v>
+      </c>
+      <c r="N51">
         <v>50</v>
       </c>
-      <c r="J51" t="s">
+      <c r="O51" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="45">
+    <row r="52" spans="1:15" ht="45">
+      <c r="A52" t="s">
+        <v>1746</v>
+      </c>
       <c r="B52" t="s">
         <v>1356</v>
       </c>
@@ -62894,20 +64105,33 @@
       <c r="D52" s="68">
         <v>51</v>
       </c>
+      <c r="E52" t="s">
+        <v>1529</v>
+      </c>
       <c r="F52" s="4">
         <v>962016229</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="I52">
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose Vicente', 'Hervas ', 51, null, '962016229', 'josephervass@yahoo.es');</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N52">
         <v>51</v>
       </c>
-      <c r="J52" t="s">
+      <c r="O52" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="45">
+    <row r="53" spans="1:15" ht="45">
+      <c r="A53" t="s">
+        <v>1746</v>
+      </c>
       <c r="B53" t="s">
         <v>1296</v>
       </c>
@@ -62917,20 +64141,33 @@
       <c r="D53" s="68">
         <v>52</v>
       </c>
+      <c r="E53" t="s">
+        <v>1529</v>
+      </c>
       <c r="F53" s="4">
         <v>916832544</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="I53">
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Dalmacio', 'Garcia ', 52, null, '916832544', 'contabilidad@cglam.net');</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1797</v>
+      </c>
+      <c r="N53">
         <v>52</v>
       </c>
-      <c r="J53" t="s">
+      <c r="O53" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="45">
+    <row r="54" spans="1:15" ht="45">
+      <c r="A54" t="s">
+        <v>1746</v>
+      </c>
       <c r="B54" t="s">
         <v>928</v>
       </c>
@@ -62940,20 +64177,33 @@
       <c r="D54" s="68">
         <v>53</v>
       </c>
+      <c r="E54" t="s">
+        <v>1529</v>
+      </c>
       <c r="F54" s="7">
         <v>910117179</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="I54">
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Monica', ' ', 53, null, '910117179', 'doctoreauto@gmail.com');</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1798</v>
+      </c>
+      <c r="N54">
         <v>53</v>
       </c>
-      <c r="J54" t="s">
+      <c r="O54" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="30">
+    <row r="55" spans="1:15" ht="30">
+      <c r="A55" t="s">
+        <v>1746</v>
+      </c>
       <c r="B55" t="s">
         <v>1355</v>
       </c>
@@ -62963,20 +64213,33 @@
       <c r="D55" s="68">
         <v>54</v>
       </c>
+      <c r="E55" t="s">
+        <v>1529</v>
+      </c>
       <c r="F55" s="4">
         <v>918862183</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>652</v>
       </c>
-      <c r="I55">
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Carlos', 'Garcia ', 54, null, '918862183', 'info@echafan.es');</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1799</v>
+      </c>
+      <c r="N55">
         <v>54</v>
       </c>
-      <c r="J55" t="s">
+      <c r="O55" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="45">
+    <row r="56" spans="1:15" ht="45">
+      <c r="A56" t="s">
+        <v>1746</v>
+      </c>
       <c r="B56" t="s">
         <v>1357</v>
       </c>
@@ -62986,20 +64249,33 @@
       <c r="D56" s="68">
         <v>55</v>
       </c>
+      <c r="E56" t="s">
+        <v>1529</v>
+      </c>
       <c r="F56" s="4">
         <v>976526236</v>
       </c>
       <c r="G56" s="24" t="s">
         <v>860</v>
       </c>
-      <c r="I56">
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Luis Alberto', 'Torres ', 55, null, '976526236', 'gerencia@fotjomard.com');</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1800</v>
+      </c>
+      <c r="N56">
         <v>55</v>
       </c>
-      <c r="J56" t="s">
+      <c r="O56" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>1746</v>
+      </c>
       <c r="B57"/>
       <c r="C57" t="s">
         <v>1378</v>
@@ -63007,16 +64283,29 @@
       <c r="D57" s="68">
         <v>56</v>
       </c>
+      <c r="E57" t="s">
+        <v>1529</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="24"/>
-      <c r="I57">
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 56, null, '', '');</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1801</v>
+      </c>
+      <c r="N57">
         <v>56</v>
       </c>
-      <c r="J57" t="s">
+      <c r="O57" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>1746</v>
+      </c>
       <c r="B58"/>
       <c r="C58" t="s">
         <v>1378</v>
@@ -63024,16 +64313,29 @@
       <c r="D58" s="68">
         <v>57</v>
       </c>
+      <c r="E58" t="s">
+        <v>1529</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="24"/>
-      <c r="I58">
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 57, null, '', '');</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1802</v>
+      </c>
+      <c r="N58">
         <v>57</v>
       </c>
-      <c r="J58" t="s">
+      <c r="O58" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>1746</v>
+      </c>
       <c r="B59"/>
       <c r="C59" t="s">
         <v>1378</v>
@@ -63041,16 +64343,29 @@
       <c r="D59" s="68">
         <v>58</v>
       </c>
+      <c r="E59" t="s">
+        <v>1529</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="25"/>
-      <c r="I59">
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 58, null, '', '');</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1803</v>
+      </c>
+      <c r="N59">
         <v>58</v>
       </c>
-      <c r="J59" t="s">
+      <c r="O59" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="45">
+    <row r="60" spans="1:15" ht="45">
+      <c r="A60" t="s">
+        <v>1746</v>
+      </c>
       <c r="B60" t="s">
         <v>1355</v>
       </c>
@@ -63060,20 +64375,33 @@
       <c r="D60" s="68">
         <v>59</v>
       </c>
+      <c r="E60" t="s">
+        <v>1529</v>
+      </c>
       <c r="F60" s="4">
         <v>952776570</v>
       </c>
       <c r="G60" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="I60">
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Carlos', 'Benítez ', 59, null, '952776570', 'electrosurmarbella@gmail.com');</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1804</v>
+      </c>
+      <c r="N60">
         <v>59</v>
       </c>
-      <c r="J60" t="s">
+      <c r="O60" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>1746</v>
+      </c>
       <c r="B61"/>
       <c r="C61" t="s">
         <v>1378</v>
@@ -63081,16 +64409,29 @@
       <c r="D61" s="68">
         <v>60</v>
       </c>
+      <c r="E61" t="s">
+        <v>1529</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="24"/>
-      <c r="I61">
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 60, null, '', '');</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1805</v>
+      </c>
+      <c r="N61">
         <v>60</v>
       </c>
-      <c r="J61" t="s">
+      <c r="O61" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="30">
+    <row r="62" spans="1:15" ht="30">
+      <c r="A62" t="s">
+        <v>1746</v>
+      </c>
       <c r="B62" t="s">
         <v>1258</v>
       </c>
@@ -63100,20 +64441,33 @@
       <c r="D62" s="68">
         <v>61</v>
       </c>
+      <c r="E62" t="s">
+        <v>1529</v>
+      </c>
       <c r="F62" s="32">
         <v>916520011</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>862</v>
       </c>
-      <c r="I62">
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Alfonso', ' ', 61, null, '916520011', 'alsanchez@interbus.es');</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1806</v>
+      </c>
+      <c r="N62">
         <v>61</v>
       </c>
-      <c r="J62" t="s">
+      <c r="O62" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="45">
+    <row r="63" spans="1:15" ht="45">
+      <c r="A63" t="s">
+        <v>1746</v>
+      </c>
       <c r="B63" t="s">
         <v>1298</v>
       </c>
@@ -63123,20 +64477,33 @@
       <c r="D63" s="68">
         <v>62</v>
       </c>
+      <c r="E63" t="s">
+        <v>1529</v>
+      </c>
       <c r="F63" s="34">
         <v>915793282</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="I63">
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Manuel', 'Perez ', 62, null, '915793282', 'huellas2@phuellas.com');</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1807</v>
+      </c>
+      <c r="N63">
         <v>62</v>
       </c>
-      <c r="J63" t="s">
+      <c r="O63" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>1746</v>
+      </c>
       <c r="B64" t="s">
         <v>1299</v>
       </c>
@@ -63146,16 +64513,29 @@
       <c r="D64" s="68">
         <v>63</v>
       </c>
+      <c r="E64" t="s">
+        <v>1529</v>
+      </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
-      <c r="I64">
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Sara', 'Aznar Posadas', 63, null, '', '');</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1808</v>
+      </c>
+      <c r="N64">
         <v>63</v>
       </c>
-      <c r="J64" t="s">
+      <c r="O64" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="45">
+    <row r="65" spans="1:15" ht="45">
+      <c r="A65" t="s">
+        <v>1746</v>
+      </c>
       <c r="B65" t="s">
         <v>1264</v>
       </c>
@@ -63165,20 +64545,33 @@
       <c r="D65" s="68">
         <v>64</v>
       </c>
+      <c r="E65" t="s">
+        <v>1529</v>
+      </c>
       <c r="F65" s="4">
         <v>918801471</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="I65">
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'Carmen', 'Alcazar ', 64, null, '918801471', 'ameydcarmen@hotmail.com');</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1809</v>
+      </c>
+      <c r="N65">
         <v>64</v>
       </c>
-      <c r="J65" t="s">
+      <c r="O65" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
+        <v>1746</v>
+      </c>
       <c r="B66"/>
       <c r="C66" t="s">
         <v>1378</v>
@@ -63186,16 +64579,29 @@
       <c r="D66" s="68">
         <v>65</v>
       </c>
+      <c r="E66" t="s">
+        <v>1529</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="25"/>
-      <c r="I66">
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 65, null, '', '');</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1810</v>
+      </c>
+      <c r="N66">
         <v>65</v>
       </c>
-      <c r="J66" t="s">
+      <c r="O66" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="45">
+    <row r="67" spans="1:15" ht="45">
+      <c r="A67" t="s">
+        <v>1746</v>
+      </c>
       <c r="B67" t="s">
         <v>1300</v>
       </c>
@@ -63205,20 +64611,33 @@
       <c r="D67" s="68">
         <v>66</v>
       </c>
+      <c r="E67" t="s">
+        <v>1529</v>
+      </c>
       <c r="F67" s="7" t="s">
         <v>1047</v>
       </c>
       <c r="G67" s="63" t="s">
         <v>1045</v>
       </c>
-      <c r="I67">
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H130" si="1">CONCATENATE(A67,"'",B67,"', '",C67,"', ",D67,", ",E67,", '",F67,"', '",G67,"');")</f>
+        <v>INSERT INTO contactos VALUES (null,'Maribel', 'Estéban ', 66, null, '911 57 42 48', 'emedemariposa@gmail.com');</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1811</v>
+      </c>
+      <c r="N67">
         <v>66</v>
       </c>
-      <c r="J67" t="s">
+      <c r="O67" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>1746</v>
+      </c>
       <c r="B68"/>
       <c r="C68" t="s">
         <v>1378</v>
@@ -63226,16 +64645,29 @@
       <c r="D68" s="68">
         <v>67</v>
       </c>
+      <c r="E68" t="s">
+        <v>1529</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="24"/>
-      <c r="I68">
+      <c r="H68" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 67, null, '', '');</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1812</v>
+      </c>
+      <c r="N68">
         <v>67</v>
       </c>
-      <c r="J68" t="s">
+      <c r="O68" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="45">
+    <row r="69" spans="1:15" ht="45">
+      <c r="A69" t="s">
+        <v>1746</v>
+      </c>
       <c r="B69" t="s">
         <v>1301</v>
       </c>
@@ -63245,20 +64677,33 @@
       <c r="D69" s="68">
         <v>68</v>
       </c>
+      <c r="E69" t="s">
+        <v>1529</v>
+      </c>
       <c r="F69" s="4">
         <v>916677910</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="I69">
+      <c r="H69" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Ana', 'Garcia Pavon', 68, null, '916677910', 'escuelainfantilcolores@yahoo.es');</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1813</v>
+      </c>
+      <c r="N69">
         <v>68</v>
       </c>
-      <c r="J69" t="s">
+      <c r="O69" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="45">
+    <row r="70" spans="1:15" ht="45">
+      <c r="A70" t="s">
+        <v>1746</v>
+      </c>
       <c r="B70" t="s">
         <v>1302</v>
       </c>
@@ -63268,20 +64713,33 @@
       <c r="D70" s="68">
         <v>69</v>
       </c>
+      <c r="E70" t="s">
+        <v>1529</v>
+      </c>
       <c r="F70" s="4" t="s">
         <v>803</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="I70">
+      <c r="H70" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Idoia', 'Santamaria Martinez', 69, null, '670 73 36 17', 'tupielalcobendas@yahoo.es');</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1814</v>
+      </c>
+      <c r="N70">
         <v>69</v>
       </c>
-      <c r="J70" t="s">
+      <c r="O70" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="45">
+    <row r="71" spans="1:15" ht="45">
+      <c r="A71" t="s">
+        <v>1746</v>
+      </c>
       <c r="B71" t="s">
         <v>1303</v>
       </c>
@@ -63291,20 +64749,33 @@
       <c r="D71" s="68">
         <v>70</v>
       </c>
+      <c r="E71" t="s">
+        <v>1529</v>
+      </c>
       <c r="F71" s="4">
         <v>918865307</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="I71">
+      <c r="H71" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Rosendo', 'Foullerat ', 70, null, '918865307', 'cerrajeriaymoldes@hotmail.com');</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1815</v>
+      </c>
+      <c r="N71">
         <v>70</v>
       </c>
-      <c r="J71" t="s">
+      <c r="O71" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="30">
+    <row r="72" spans="1:15" ht="30">
+      <c r="A72" t="s">
+        <v>1746</v>
+      </c>
       <c r="B72" t="s">
         <v>1358</v>
       </c>
@@ -63314,20 +64785,33 @@
       <c r="D72" s="68">
         <v>71</v>
       </c>
+      <c r="E72" t="s">
+        <v>1529</v>
+      </c>
       <c r="F72" s="4">
         <v>918868253</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="I72">
+      <c r="H72" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'María del Carmen', 'García Martinez', 71, null, '918868253', 'gerencia@seish.es');</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1816</v>
+      </c>
+      <c r="N72">
         <v>71</v>
       </c>
-      <c r="J72" t="s">
+      <c r="O72" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="73" spans="2:10" ht="60">
+    <row r="73" spans="1:15" ht="60">
+      <c r="A73" t="s">
+        <v>1746</v>
+      </c>
       <c r="B73" t="s">
         <v>1297</v>
       </c>
@@ -63337,20 +64821,33 @@
       <c r="D73" s="68">
         <v>72</v>
       </c>
+      <c r="E73" t="s">
+        <v>1529</v>
+      </c>
       <c r="F73" s="4">
         <v>911963828</v>
       </c>
       <c r="G73" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="I73">
+      <c r="H73" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Alberto', 'Garcia ', 72, null, '911963828', 'miguelangel.puracarpinteria@gmail.com ');</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N73">
         <v>72</v>
       </c>
-      <c r="J73" t="s">
+      <c r="O73" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="74" spans="2:10" ht="45">
+    <row r="74" spans="1:15" ht="45">
+      <c r="A74" t="s">
+        <v>1746</v>
+      </c>
       <c r="B74" t="s">
         <v>1304</v>
       </c>
@@ -63360,20 +64857,33 @@
       <c r="D74" s="68">
         <v>73</v>
       </c>
+      <c r="E74" t="s">
+        <v>1529</v>
+      </c>
       <c r="F74" s="4">
         <v>916526841</v>
       </c>
       <c r="G74" s="24" t="s">
         <v>864</v>
       </c>
-      <c r="I74">
+      <c r="H74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Abraham', 'de Diego ', 73, null, '916526841', 'farolesdeartesania@hotmail.com');</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1818</v>
+      </c>
+      <c r="N74">
         <v>73</v>
       </c>
-      <c r="J74" t="s">
+      <c r="O74" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="2:10" ht="30">
+    <row r="75" spans="1:15" ht="30">
+      <c r="A75" t="s">
+        <v>1746</v>
+      </c>
       <c r="B75" t="s">
         <v>1270</v>
       </c>
@@ -63383,20 +64893,33 @@
       <c r="D75" s="68">
         <v>74</v>
       </c>
+      <c r="E75" t="s">
+        <v>1529</v>
+      </c>
       <c r="F75" s="4">
         <v>917111476</v>
       </c>
       <c r="G75" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="I75">
+      <c r="H75" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose', 'Andres Coronado', 74, null, '917111476', 'gerencia@kobel.es');</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1819</v>
+      </c>
+      <c r="N75">
         <v>74</v>
       </c>
-      <c r="J75" t="s">
+      <c r="O75" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="2:10" ht="60">
+    <row r="76" spans="1:15" ht="60">
+      <c r="A76" t="s">
+        <v>1746</v>
+      </c>
       <c r="B76" t="s">
         <v>1305</v>
       </c>
@@ -63406,20 +64929,33 @@
       <c r="D76" s="68">
         <v>75</v>
       </c>
+      <c r="E76" t="s">
+        <v>1529</v>
+      </c>
       <c r="F76" s="4">
         <v>916680090</v>
       </c>
       <c r="G76" s="24" t="s">
         <v>866</v>
       </c>
-      <c r="I76">
+      <c r="H76" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Pablo', 'Ortiz ', 75, null, '916680090', 'Joaquin@tavicce-marjop.com');</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1820</v>
+      </c>
+      <c r="N76">
         <v>75</v>
       </c>
-      <c r="J76" t="s">
+      <c r="O76" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="2:10" ht="30">
+    <row r="77" spans="1:15" ht="30">
+      <c r="A77" t="s">
+        <v>1746</v>
+      </c>
       <c r="B77" t="s">
         <v>1276</v>
       </c>
@@ -63429,14 +64965,27 @@
       <c r="D77" s="68">
         <v>13</v>
       </c>
+      <c r="E77" t="s">
+        <v>1529</v>
+      </c>
       <c r="F77" s="4">
         <v>913839119</v>
       </c>
       <c r="G77" s="24" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" ht="30">
+      <c r="H77" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Favio', 'Zambelli ', 13, null, '913839119', 'favio@labrujula.eu');</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="30">
+      <c r="A78" t="s">
+        <v>1746</v>
+      </c>
       <c r="B78" t="s">
         <v>1288</v>
       </c>
@@ -63445,19 +64994,32 @@
       </c>
       <c r="D78" s="68">
         <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1529</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="I78">
+      <c r="H78" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Angel', 'Perez Duran', 77, null, '', 'info@chikifiestas.com');</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1821</v>
+      </c>
+      <c r="N78">
         <v>77</v>
       </c>
-      <c r="J78" t="s">
+      <c r="O78" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>1746</v>
+      </c>
       <c r="B79" t="s">
         <v>1306</v>
       </c>
@@ -63467,18 +65029,31 @@
       <c r="D79" s="68">
         <v>78</v>
       </c>
+      <c r="E79" t="s">
+        <v>1529</v>
+      </c>
       <c r="F79" s="4" t="s">
         <v>804</v>
       </c>
       <c r="G79" s="24"/>
-      <c r="I79">
+      <c r="H79" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Consuelo', 'Granda ', 78, null, '650 374 281', '');</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1822</v>
+      </c>
+      <c r="N79">
         <v>78</v>
       </c>
-      <c r="J79" t="s">
+      <c r="O79" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="80" spans="2:10" ht="45">
+    <row r="80" spans="1:15" ht="45">
+      <c r="A80" t="s">
+        <v>1746</v>
+      </c>
       <c r="B80" t="s">
         <v>1307</v>
       </c>
@@ -63488,20 +65063,33 @@
       <c r="D80" s="68">
         <v>79</v>
       </c>
+      <c r="E80" t="s">
+        <v>1529</v>
+      </c>
       <c r="F80" s="4">
         <v>913780009</v>
       </c>
       <c r="G80" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="I80">
+      <c r="H80" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Celia', 'del Barrio ', 79, null, '913780009', 'myos.fisioterapia@gmail.com');</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1823</v>
+      </c>
+      <c r="N80">
         <v>79</v>
       </c>
-      <c r="J80" t="s">
+      <c r="O80" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="2:10" ht="45">
+    <row r="81" spans="1:15" ht="45">
+      <c r="A81" t="s">
+        <v>1746</v>
+      </c>
       <c r="B81" t="s">
         <v>1308</v>
       </c>
@@ -63511,20 +65099,33 @@
       <c r="D81" s="68">
         <v>80</v>
       </c>
+      <c r="E81" t="s">
+        <v>1529</v>
+      </c>
       <c r="F81" s="4">
         <v>918504561</v>
       </c>
       <c r="G81" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="I81">
+      <c r="H81" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Antonia', 'San Martin Tellez', 80, null, '918504561', 'antonia-flores07@hotmail.com');</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1824</v>
+      </c>
+      <c r="N81">
         <v>80</v>
       </c>
-      <c r="J81" t="s">
+      <c r="O81" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="2:10" ht="60">
+    <row r="82" spans="1:15" ht="60">
+      <c r="A82" t="s">
+        <v>1746</v>
+      </c>
       <c r="B82" t="s">
         <v>1309</v>
       </c>
@@ -63534,20 +65135,33 @@
       <c r="D82" s="68">
         <v>81</v>
       </c>
+      <c r="E82" t="s">
+        <v>1529</v>
+      </c>
       <c r="F82" s="4">
         <v>916343542</v>
       </c>
       <c r="G82" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="I82">
+      <c r="H82" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Belen', 'Echevarria ', 81, null, '916343542', 'belen.echevarria@humiambiente.com');</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1825</v>
+      </c>
+      <c r="N82">
         <v>81</v>
       </c>
-      <c r="J82" t="s">
+      <c r="O82" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="45">
+    <row r="83" spans="1:15" ht="45">
+      <c r="A83" t="s">
+        <v>1746</v>
+      </c>
       <c r="B83" t="s">
         <v>1310</v>
       </c>
@@ -63557,20 +65171,33 @@
       <c r="D83" s="68">
         <v>82</v>
       </c>
+      <c r="E83" t="s">
+        <v>1529</v>
+      </c>
       <c r="F83" s="4">
         <v>916664086</v>
       </c>
       <c r="G83" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="I83">
+      <c r="H83" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Raquel', 'Somolinos ', 82, null, '916664086', 'raquel@forjasomolinos.com');</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1826</v>
+      </c>
+      <c r="N83">
         <v>82</v>
       </c>
-      <c r="J83" t="s">
+      <c r="O83" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="84" spans="2:10" ht="60">
+    <row r="84" spans="1:15" ht="60">
+      <c r="A84" t="s">
+        <v>1746</v>
+      </c>
       <c r="B84" t="s">
         <v>1359</v>
       </c>
@@ -63580,20 +65207,33 @@
       <c r="D84" s="68">
         <v>83</v>
       </c>
+      <c r="E84" t="s">
+        <v>1529</v>
+      </c>
       <c r="F84" s="4">
         <v>915430946</v>
       </c>
       <c r="G84" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="I84">
+      <c r="H84" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose Miguel', 'Arribas ', 83, null, '915430946', 'contacto@fotocopias-madrid.com');</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1827</v>
+      </c>
+      <c r="N84">
         <v>83</v>
       </c>
-      <c r="J84" t="s">
+      <c r="O84" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="2:10" ht="30">
+    <row r="85" spans="1:15" ht="30">
+      <c r="A85" t="s">
+        <v>1746</v>
+      </c>
       <c r="B85" t="s">
         <v>1301</v>
       </c>
@@ -63603,20 +65243,33 @@
       <c r="D85" s="68">
         <v>84</v>
       </c>
+      <c r="E85" t="s">
+        <v>1529</v>
+      </c>
       <c r="F85" s="6">
         <v>915308374</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>902</v>
       </c>
-      <c r="I85">
+      <c r="H85" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Ana', 'Cadavieco ', 84, null, '915308374', 'info@fotoganga.com');</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1828</v>
+      </c>
+      <c r="N85">
         <v>84</v>
       </c>
-      <c r="J85" t="s">
+      <c r="O85" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>1746</v>
+      </c>
       <c r="B86"/>
       <c r="C86" t="s">
         <v>1378</v>
@@ -63624,16 +65277,29 @@
       <c r="D86" s="68">
         <v>85</v>
       </c>
+      <c r="E86" t="s">
+        <v>1529</v>
+      </c>
       <c r="F86" s="6"/>
       <c r="G86" s="25"/>
-      <c r="I86">
+      <c r="H86" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 85, null, '', '');</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1829</v>
+      </c>
+      <c r="N86">
         <v>85</v>
       </c>
-      <c r="J86" t="s">
+      <c r="O86" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="87" spans="2:10" ht="30">
+    <row r="87" spans="1:15" ht="30">
+      <c r="A87" t="s">
+        <v>1746</v>
+      </c>
       <c r="B87" t="s">
         <v>1262</v>
       </c>
@@ -63643,20 +65309,33 @@
       <c r="D87" s="68">
         <v>86</v>
       </c>
+      <c r="E87" t="s">
+        <v>1529</v>
+      </c>
       <c r="F87" s="4">
         <v>918706603</v>
       </c>
       <c r="G87" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="I87">
+      <c r="H87" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Francisco Javier', 'Garcia ', 86, null, '918706603', 'futurinox@hotmail.es');</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1830</v>
+      </c>
+      <c r="N87">
         <v>86</v>
       </c>
-      <c r="J87" t="s">
+      <c r="O87" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="88" spans="2:10" ht="30">
+    <row r="88" spans="1:15" ht="30">
+      <c r="A88" t="s">
+        <v>1746</v>
+      </c>
       <c r="B88" t="s">
         <v>1360</v>
       </c>
@@ -63666,20 +65345,33 @@
       <c r="D88" s="68">
         <v>87</v>
       </c>
+      <c r="E88" t="s">
+        <v>1529</v>
+      </c>
       <c r="F88" s="4">
         <v>934261769</v>
       </c>
       <c r="G88" s="24" t="s">
         <v>868</v>
       </c>
-      <c r="I88">
+      <c r="H88" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Mari Paz', 'Abad ', 87, null, '934261769', 'mpabad@etl.es');</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1831</v>
+      </c>
+      <c r="N88">
         <v>87</v>
       </c>
-      <c r="J88" t="s">
+      <c r="O88" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="45">
+    <row r="89" spans="1:15" ht="45">
+      <c r="A89" t="s">
+        <v>1746</v>
+      </c>
       <c r="B89" t="s">
         <v>1361</v>
       </c>
@@ -63689,20 +65381,33 @@
       <c r="D89" s="68">
         <v>88</v>
       </c>
+      <c r="E89" t="s">
+        <v>1529</v>
+      </c>
       <c r="F89" s="6">
         <v>949339438</v>
       </c>
       <c r="G89" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="I89">
+      <c r="H89" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Ana Maria', 'Moreno Amado', 88, null, '949339438', 'moreno_amado@hotmail.com');</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1832</v>
+      </c>
+      <c r="N89">
         <v>88</v>
       </c>
-      <c r="J89" t="s">
+      <c r="O89" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="2:10" ht="45">
+    <row r="90" spans="1:15" ht="45">
+      <c r="A90" t="s">
+        <v>1746</v>
+      </c>
       <c r="B90" t="s">
         <v>1362</v>
       </c>
@@ -63711,19 +65416,32 @@
       </c>
       <c r="D90" s="68">
         <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1529</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="I90">
+      <c r="H90" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Jesus Javier', 'Martin ', 89, null, '', 'IMARTINP@telefonica.net ');</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1833</v>
+      </c>
+      <c r="N90">
         <v>89</v>
       </c>
-      <c r="J90" t="s">
+      <c r="O90" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="91" spans="2:10" ht="90">
+    <row r="91" spans="1:15" ht="90">
+      <c r="A91" t="s">
+        <v>1746</v>
+      </c>
       <c r="B91" t="s">
         <v>1363</v>
       </c>
@@ -63733,20 +65451,33 @@
       <c r="D91" s="68">
         <v>90</v>
       </c>
+      <c r="E91" t="s">
+        <v>1529</v>
+      </c>
       <c r="F91" s="34">
         <v>916420740</v>
       </c>
       <c r="G91" s="34" t="s">
         <v>930</v>
       </c>
-      <c r="I91">
+      <c r="H91" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'José Luis', 'Herrero Garrido', 90, null, '916420740', 'heripaesther@gmail.com; heripa@infonegocio.com');</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1834</v>
+      </c>
+      <c r="N91">
         <v>90</v>
       </c>
-      <c r="J91" t="s">
+      <c r="O91" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="92" spans="2:10" ht="60">
+    <row r="92" spans="1:15" ht="60">
+      <c r="A92" t="s">
+        <v>1746</v>
+      </c>
       <c r="B92" t="s">
         <v>1313</v>
       </c>
@@ -63756,20 +65487,33 @@
       <c r="D92" s="68">
         <v>91</v>
       </c>
+      <c r="E92" t="s">
+        <v>1529</v>
+      </c>
       <c r="F92" s="34">
         <v>933474856</v>
       </c>
       <c r="G92" s="34" t="s">
         <v>925</v>
       </c>
-      <c r="I92">
+      <c r="H92" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Patricia', 'Hernandez Benitez', 91, null, '933474856', 'administracion@hiperaluminio.com');</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1835</v>
+      </c>
+      <c r="N92">
         <v>91</v>
       </c>
-      <c r="J92" t="s">
+      <c r="O92" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="93" spans="2:10" ht="60">
+    <row r="93" spans="1:15" ht="60">
+      <c r="A93" t="s">
+        <v>1746</v>
+      </c>
       <c r="B93" t="s">
         <v>1314</v>
       </c>
@@ -63779,20 +65523,33 @@
       <c r="D93" s="68">
         <v>92</v>
       </c>
+      <c r="E93" t="s">
+        <v>1529</v>
+      </c>
       <c r="F93" s="4">
         <v>916607649</v>
       </c>
       <c r="G93" s="24" t="s">
         <v>870</v>
       </c>
-      <c r="I93">
+      <c r="H93" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Manuela', 'Pizarro ', 92, null, '916607649', 'reservas@hotel-mirador.net');</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1836</v>
+      </c>
+      <c r="N93">
         <v>92</v>
       </c>
-      <c r="J93" t="s">
+      <c r="O93" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>1746</v>
+      </c>
       <c r="B94"/>
       <c r="C94" t="s">
         <v>1378</v>
@@ -63800,16 +65557,29 @@
       <c r="D94" s="68">
         <v>93</v>
       </c>
+      <c r="E94" t="s">
+        <v>1529</v>
+      </c>
       <c r="F94" s="6"/>
       <c r="G94" s="25"/>
-      <c r="I94">
+      <c r="H94" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 93, null, '', '');</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1837</v>
+      </c>
+      <c r="N94">
         <v>93</v>
       </c>
-      <c r="J94" t="s">
+      <c r="O94" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="95" spans="2:10" ht="45">
+    <row r="95" spans="1:15" ht="45">
+      <c r="A95" t="s">
+        <v>1746</v>
+      </c>
       <c r="B95" t="s">
         <v>1315</v>
       </c>
@@ -63819,20 +65589,33 @@
       <c r="D95" s="68">
         <v>94</v>
       </c>
+      <c r="E95" t="s">
+        <v>1529</v>
+      </c>
       <c r="F95" s="29">
         <v>916597600</v>
       </c>
       <c r="G95" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="I95">
+      <c r="H95" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Elvira', 'Pérez Parrilla', 94, null, '916597600', 'eperez@aytoalcobendas.org');</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1838</v>
+      </c>
+      <c r="N95">
         <v>94</v>
       </c>
-      <c r="J95" t="s">
+      <c r="O95" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>1746</v>
+      </c>
       <c r="B96" t="s">
         <v>1284</v>
       </c>
@@ -63842,16 +65625,29 @@
       <c r="D96" s="68">
         <v>95</v>
       </c>
+      <c r="E96" t="s">
+        <v>1529</v>
+      </c>
       <c r="F96" s="49"/>
       <c r="G96" s="24"/>
-      <c r="I96">
+      <c r="H96" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Isabel', 'Garcia ', 95, null, '', '');</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N96">
         <v>95</v>
       </c>
-      <c r="J96" t="s">
+      <c r="O96" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="97" spans="2:10" ht="45">
+    <row r="97" spans="1:15" ht="45">
+      <c r="A97" t="s">
+        <v>1746</v>
+      </c>
       <c r="B97" t="s">
         <v>1266</v>
       </c>
@@ -63861,20 +65657,33 @@
       <c r="D97" s="68">
         <v>96</v>
       </c>
+      <c r="E97" t="s">
+        <v>1529</v>
+      </c>
       <c r="F97" s="4" t="s">
         <v>920</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="I97">
+      <c r="H97" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Javier', 'Perez Vargas', 96, null, '91 328 03 44', 'instalaciondirecta@yahoo.es');</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1840</v>
+      </c>
+      <c r="N97">
         <v>96</v>
       </c>
-      <c r="J97" t="s">
+      <c r="O97" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="98" spans="2:10" ht="60">
+    <row r="98" spans="1:15" ht="60">
+      <c r="A98" t="s">
+        <v>1746</v>
+      </c>
       <c r="B98" t="s">
         <v>1316</v>
       </c>
@@ -63883,19 +65692,32 @@
       </c>
       <c r="D98" s="68">
         <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1529</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="I98">
+      <c r="H98" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Andreu', 'Mendez Claver', 97, null, '', 'instal.lacionsandreu@hotmail.com');</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1841</v>
+      </c>
+      <c r="N98">
         <v>97</v>
       </c>
-      <c r="J98" t="s">
+      <c r="O98" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="2:10" ht="30">
+    <row r="99" spans="1:15" ht="30">
+      <c r="A99" t="s">
+        <v>1746</v>
+      </c>
       <c r="B99" t="s">
         <v>1290</v>
       </c>
@@ -63905,20 +65727,33 @@
       <c r="D99" s="68">
         <v>98</v>
       </c>
+      <c r="E99" t="s">
+        <v>1529</v>
+      </c>
       <c r="F99" s="4">
         <v>936580950</v>
       </c>
       <c r="G99" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="I99">
+      <c r="H99" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Carlos', 'Rué ', 98, null, '936580950', 'info@electrorue.es');</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1842</v>
+      </c>
+      <c r="N99">
         <v>98</v>
       </c>
-      <c r="J99" t="s">
+      <c r="O99" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="100" spans="2:10" ht="45">
+    <row r="100" spans="1:15" ht="45">
+      <c r="A100" t="s">
+        <v>1746</v>
+      </c>
       <c r="B100" t="s">
         <v>1261</v>
       </c>
@@ -63928,20 +65763,33 @@
       <c r="D100" s="68">
         <v>99</v>
       </c>
+      <c r="E100" t="s">
+        <v>1529</v>
+      </c>
       <c r="F100" s="4">
         <v>937507709</v>
       </c>
       <c r="G100" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="I100">
+      <c r="H100" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose Antonio', 'Sanchez Navarro', 99, null, '937507709', 'estilanacris@infonegocio.com');</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1843</v>
+      </c>
+      <c r="N100">
         <v>99</v>
       </c>
-      <c r="J100" t="s">
+      <c r="O100" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="101" spans="2:10" ht="45">
+    <row r="101" spans="1:15" ht="45">
+      <c r="A101" t="s">
+        <v>1746</v>
+      </c>
       <c r="B101" t="s">
         <v>1305</v>
       </c>
@@ -63951,20 +65799,33 @@
       <c r="D101" s="68">
         <v>100</v>
       </c>
+      <c r="E101" t="s">
+        <v>1529</v>
+      </c>
       <c r="F101" s="42">
         <v>34912797620</v>
       </c>
       <c r="G101" s="35" t="s">
         <v>933</v>
       </c>
-      <c r="I101">
+      <c r="H101" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Pablo', 'Nuñez ', 100, null, '34912797620', 'pablo.nunez@intexia.com');</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1844</v>
+      </c>
+      <c r="N101">
         <v>100</v>
       </c>
-      <c r="J101" t="s">
+      <c r="O101" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="102" spans="2:10" ht="45">
+    <row r="102" spans="1:15" ht="45">
+      <c r="A102" t="s">
+        <v>1746</v>
+      </c>
       <c r="B102" t="s">
         <v>1344</v>
       </c>
@@ -63974,20 +65835,33 @@
       <c r="D102" s="68">
         <v>101</v>
       </c>
+      <c r="E102" t="s">
+        <v>1529</v>
+      </c>
       <c r="F102" s="4">
         <v>912940042</v>
       </c>
       <c r="G102" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="I102">
+      <c r="H102" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Jose', 'Diaz Angulo', 101, null, '912940042', 'klunicocinas@santos.es');</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1845</v>
+      </c>
+      <c r="N102">
         <v>101</v>
       </c>
-      <c r="J102" t="s">
+      <c r="O102" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="1:15">
+      <c r="A103" t="s">
+        <v>1746</v>
+      </c>
       <c r="B103"/>
       <c r="C103" t="s">
         <v>1378</v>
@@ -63995,16 +65869,29 @@
       <c r="D103" s="68">
         <v>102</v>
       </c>
+      <c r="E103" t="s">
+        <v>1529</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="24"/>
-      <c r="I103">
+      <c r="H103" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 102, null, '', '');</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1846</v>
+      </c>
+      <c r="N103">
         <v>102</v>
       </c>
-      <c r="J103" t="s">
+      <c r="O103" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="104" spans="2:10" ht="30">
+    <row r="104" spans="1:15" ht="30">
+      <c r="A104" t="s">
+        <v>1746</v>
+      </c>
       <c r="B104" t="s">
         <v>1259</v>
       </c>
@@ -64014,20 +65901,33 @@
       <c r="D104" s="68">
         <v>103</v>
       </c>
+      <c r="E104" t="s">
+        <v>1529</v>
+      </c>
       <c r="F104" s="34" t="s">
         <v>805</v>
       </c>
       <c r="G104" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="I104">
+      <c r="H104" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Antonio', ' ', 103, null, '669 03 17 57', 'info@laspajaras.com');</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1847</v>
+      </c>
+      <c r="N104">
         <v>103</v>
       </c>
-      <c r="J104" t="s">
+      <c r="O104" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="105" spans="2:10" ht="30">
+    <row r="105" spans="1:15" ht="30">
+      <c r="A105" t="s">
+        <v>1746</v>
+      </c>
       <c r="B105" t="s">
         <v>1317</v>
       </c>
@@ -64037,20 +65937,33 @@
       <c r="D105" s="68">
         <v>104</v>
       </c>
+      <c r="E105" t="s">
+        <v>1529</v>
+      </c>
       <c r="F105" s="4">
         <v>913690657</v>
       </c>
       <c r="G105" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="I105">
+      <c r="H105" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Indru', 'Mani ', 104, null, '913690657', 'info@lexus.es');</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1848</v>
+      </c>
+      <c r="N105">
         <v>104</v>
       </c>
-      <c r="J105" t="s">
+      <c r="O105" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="106" spans="2:10" ht="45">
+    <row r="106" spans="1:15" ht="45">
+      <c r="A106" t="s">
+        <v>1746</v>
+      </c>
       <c r="B106" t="s">
         <v>1318</v>
       </c>
@@ -64060,20 +65973,33 @@
       <c r="D106" s="68">
         <v>105</v>
       </c>
+      <c r="E106" t="s">
+        <v>1529</v>
+      </c>
       <c r="F106" s="4">
         <v>913805239</v>
       </c>
       <c r="G106" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="I106">
+      <c r="H106" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Trifon', 'Naranjo ', 105, null, '913805239', 'limpiezas.naranjo@gmail.com');</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1849</v>
+      </c>
+      <c r="N106">
         <v>105</v>
       </c>
-      <c r="J106" t="s">
+      <c r="O106" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="107" spans="2:10" ht="45">
+    <row r="107" spans="1:15" ht="45">
+      <c r="A107" t="s">
+        <v>1746</v>
+      </c>
       <c r="B107" t="s">
         <v>1319</v>
       </c>
@@ -64083,20 +66009,33 @@
       <c r="D107" s="68">
         <v>106</v>
       </c>
+      <c r="E107" t="s">
+        <v>1529</v>
+      </c>
       <c r="F107" s="4">
         <v>916764317</v>
       </c>
       <c r="G107" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="I107">
+      <c r="H107" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Devora', 'Perez Hernandez', 106, null, '916764317', 'olga@limpiezas-zeus.com');</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1850</v>
+      </c>
+      <c r="N107">
         <v>106</v>
       </c>
-      <c r="J107" t="s">
+      <c r="O107" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="108" spans="2:10" ht="45">
+    <row r="108" spans="1:15" ht="45">
+      <c r="A108" t="s">
+        <v>1746</v>
+      </c>
       <c r="B108" t="s">
         <v>1257</v>
       </c>
@@ -64106,20 +66045,33 @@
       <c r="D108" s="68">
         <v>107</v>
       </c>
+      <c r="E108" t="s">
+        <v>1529</v>
+      </c>
       <c r="F108" s="4">
         <v>916428234</v>
       </c>
       <c r="G108" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="I108">
+      <c r="H108" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Jorge', 'Cosials Ruiz', 107, null, '916428234', 'contacto@lineas-vida-conik.com');</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1851</v>
+      </c>
+      <c r="N108">
         <v>107</v>
       </c>
-      <c r="J108" t="s">
+      <c r="O108" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="109" spans="2:10" ht="45">
+    <row r="109" spans="1:15" ht="45">
+      <c r="A109" t="s">
+        <v>1746</v>
+      </c>
       <c r="B109" t="s">
         <v>1297</v>
       </c>
@@ -64129,20 +66081,33 @@
       <c r="D109" s="68">
         <v>108</v>
       </c>
+      <c r="E109" t="s">
+        <v>1529</v>
+      </c>
       <c r="F109" s="4">
         <v>916562483</v>
       </c>
       <c r="G109" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="I109">
+      <c r="H109" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Alberto', 'Maier ', 108, null, '916562483', 'amaiermarin@hotmail.com');</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1852</v>
+      </c>
+      <c r="N109">
         <v>108</v>
       </c>
-      <c r="J109" t="s">
+      <c r="O109" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="110" spans="2:10" ht="60">
+    <row r="110" spans="1:15" ht="60">
+      <c r="A110" t="s">
+        <v>1746</v>
+      </c>
       <c r="B110" t="s">
         <v>1320</v>
       </c>
@@ -64152,20 +66117,33 @@
       <c r="D110" s="68">
         <v>109</v>
       </c>
+      <c r="E110" t="s">
+        <v>1529</v>
+      </c>
       <c r="F110" s="56" t="s">
         <v>841</v>
       </c>
       <c r="G110" s="35" t="s">
         <v>842</v>
       </c>
-      <c r="I110">
+      <c r="H110" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Marcos', 'Salguero ', 109, null, '+34 654 33 41 62', 'marcosalguero.asesor@gmail.com');</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1853</v>
+      </c>
+      <c r="N110">
         <v>109</v>
       </c>
-      <c r="J110" t="s">
+      <c r="O110" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="111" spans="2:10" ht="60">
+    <row r="111" spans="1:15" ht="60">
+      <c r="A111" t="s">
+        <v>1746</v>
+      </c>
       <c r="B111"/>
       <c r="C111" t="s">
         <v>1378</v>
@@ -64173,12 +66151,25 @@
       <c r="D111" s="68">
         <v>110</v>
       </c>
+      <c r="E111" t="s">
+        <v>1529</v>
+      </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="112" spans="2:10" ht="45">
+      <c r="H111" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 110, null, '', 'marcosalguero.asesor@gmail.com');</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="45">
+      <c r="A112" t="s">
+        <v>1746</v>
+      </c>
       <c r="B112" t="s">
         <v>1364</v>
       </c>
@@ -64188,20 +66179,33 @@
       <c r="D112" s="68">
         <v>111</v>
       </c>
+      <c r="E112" t="s">
+        <v>1529</v>
+      </c>
       <c r="F112" s="4">
         <v>961260217</v>
       </c>
       <c r="G112" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="I112">
+      <c r="H112" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Miguel', 'Santes ', 111, null, '961260217', 'marmolessantes@gmail.com');</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1855</v>
+      </c>
+      <c r="N112">
         <v>111</v>
       </c>
-      <c r="J112" t="s">
+      <c r="O112" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="30">
+    <row r="113" spans="1:15" ht="30">
+      <c r="A113" t="s">
+        <v>1746</v>
+      </c>
       <c r="B113"/>
       <c r="C113" t="s">
         <v>1378</v>
@@ -64209,18 +66213,31 @@
       <c r="D113" s="68">
         <v>112</v>
       </c>
+      <c r="E113" t="s">
+        <v>1529</v>
+      </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34" t="s">
         <v>885</v>
       </c>
-      <c r="I113">
+      <c r="H113" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 112, null, '', 'info@mbubag.com');</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1856</v>
+      </c>
+      <c r="N113">
         <v>112</v>
       </c>
-      <c r="J113" t="s">
+      <c r="O113" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="114" spans="2:10" ht="45">
+    <row r="114" spans="1:15" ht="45">
+      <c r="A114" t="s">
+        <v>1746</v>
+      </c>
       <c r="B114" t="s">
         <v>1266</v>
       </c>
@@ -64230,20 +66247,33 @@
       <c r="D114" s="68">
         <v>113</v>
       </c>
+      <c r="E114" t="s">
+        <v>1529</v>
+      </c>
       <c r="F114" s="4">
         <v>630543952</v>
       </c>
       <c r="G114" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="I114">
+      <c r="H114" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Javier', 'Arrebola ', 113, null, '630543952', 'medinarotulos@gmail.com');</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1857</v>
+      </c>
+      <c r="N114">
         <v>113</v>
       </c>
-      <c r="J114" t="s">
+      <c r="O114" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>1746</v>
+      </c>
       <c r="B115"/>
       <c r="C115" t="s">
         <v>1378</v>
@@ -64251,16 +66281,29 @@
       <c r="D115" s="68">
         <v>114</v>
       </c>
+      <c r="E115" t="s">
+        <v>1529</v>
+      </c>
       <c r="F115" s="6"/>
       <c r="G115" s="25"/>
-      <c r="I115">
+      <c r="H115" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 114, null, '', '');</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1858</v>
+      </c>
+      <c r="N115">
         <v>114</v>
       </c>
-      <c r="J115" t="s">
+      <c r="O115" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="2:10" ht="30">
+    <row r="116" spans="1:15" ht="30">
+      <c r="A116" t="s">
+        <v>1746</v>
+      </c>
       <c r="B116" t="s">
         <v>1285</v>
       </c>
@@ -64270,20 +66313,33 @@
       <c r="D116" s="68">
         <v>115</v>
       </c>
+      <c r="E116" t="s">
+        <v>1529</v>
+      </c>
       <c r="F116" s="4">
         <v>916818211</v>
       </c>
       <c r="G116" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="I116">
+      <c r="H116" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Ignacio', 'Hernández ', 115, null, '916818211', 'meyfa@meyfa.es');</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N116">
         <v>115</v>
       </c>
-      <c r="J116" t="s">
+      <c r="O116" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="117" spans="2:10" ht="60">
+    <row r="117" spans="1:15" ht="60">
+      <c r="A117" t="s">
+        <v>1746</v>
+      </c>
       <c r="B117" t="s">
         <v>1321</v>
       </c>
@@ -64293,20 +66349,33 @@
       <c r="D117" s="68">
         <v>116</v>
       </c>
+      <c r="E117" t="s">
+        <v>1529</v>
+      </c>
       <c r="F117" s="4">
         <v>933151398</v>
       </c>
       <c r="G117" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="I117">
+      <c r="H117" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Joan', 'Daranas ', 116, null, '933151398', 'prototipadosdaranas@gmail.com');</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1860</v>
+      </c>
+      <c r="N117">
         <v>116</v>
       </c>
-      <c r="J117" t="s">
+      <c r="O117" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="45">
+    <row r="118" spans="1:15" ht="45">
+      <c r="A118" t="s">
+        <v>1746</v>
+      </c>
       <c r="B118" t="s">
         <v>1322</v>
       </c>
@@ -64315,19 +66384,32 @@
       </c>
       <c r="D118" s="68">
         <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1529</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34" t="s">
         <v>888</v>
       </c>
-      <c r="I118">
+      <c r="H118" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Laura', 'Alvarez ', 117, null, '', 'ascension@mintandrose.com');</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1861</v>
+      </c>
+      <c r="N118">
         <v>117</v>
       </c>
-      <c r="J118" t="s">
+      <c r="O118" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="119" spans="2:10" ht="30">
+    <row r="119" spans="1:15" ht="30">
+      <c r="A119" t="s">
+        <v>1746</v>
+      </c>
       <c r="B119" t="s">
         <v>1271</v>
       </c>
@@ -64337,20 +66419,33 @@
       <c r="D119" s="68">
         <v>118</v>
       </c>
+      <c r="E119" t="s">
+        <v>1529</v>
+      </c>
       <c r="F119" s="4">
         <v>914905576</v>
       </c>
       <c r="G119" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="I119">
+      <c r="H119" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Luis', 'Muñoz Navarro', 118, null, '914905576', 'mogatro@mogatro.es');</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1862</v>
+      </c>
+      <c r="N119">
         <v>118</v>
       </c>
-      <c r="J119" t="s">
+      <c r="O119" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="120" spans="2:10" ht="45">
+    <row r="120" spans="1:15" ht="45">
+      <c r="A120" t="s">
+        <v>1746</v>
+      </c>
       <c r="B120" t="s">
         <v>1269</v>
       </c>
@@ -64360,20 +66455,33 @@
       <c r="D120" s="68">
         <v>119</v>
       </c>
+      <c r="E120" t="s">
+        <v>1529</v>
+      </c>
       <c r="F120" s="34">
         <v>915304847</v>
       </c>
       <c r="G120" s="35" t="s">
         <v>913</v>
       </c>
-      <c r="I120">
+      <c r="H120" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Esteban', 'Solís Aguilera', 119, null, '915304847', 'mudanzasgoyo@hotmail.com');</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1863</v>
+      </c>
+      <c r="N120">
         <v>119</v>
       </c>
-      <c r="J120" t="s">
+      <c r="O120" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="121" spans="2:10" ht="45">
+    <row r="121" spans="1:15" ht="45">
+      <c r="A121" t="s">
+        <v>1746</v>
+      </c>
       <c r="B121" t="s">
         <v>1323</v>
       </c>
@@ -64383,20 +66491,33 @@
       <c r="D121" s="68">
         <v>120</v>
       </c>
+      <c r="E121" t="s">
+        <v>1529</v>
+      </c>
       <c r="F121" s="4" t="s">
         <v>806</v>
       </c>
       <c r="G121" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="I121">
+      <c r="H121" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Fabio', 'Serranos Hernández', 120, null, '91 661 12 04', 'm.serranos@hotmail.com');</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1864</v>
+      </c>
+      <c r="N121">
         <v>120</v>
       </c>
-      <c r="J121" t="s">
+      <c r="O121" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="2:10" ht="60">
+    <row r="122" spans="1:15" ht="60">
+      <c r="A122" t="s">
+        <v>1746</v>
+      </c>
       <c r="B122" t="s">
         <v>1365</v>
       </c>
@@ -64406,20 +66527,33 @@
       <c r="D122" s="68">
         <v>121</v>
       </c>
+      <c r="E122" t="s">
+        <v>1529</v>
+      </c>
       <c r="F122" s="4">
         <v>918012816</v>
       </c>
       <c r="G122" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="I122">
+      <c r="H122" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Luis Manuel', 'Arenas ', 121, null, '918012816', 'juanfrancisco@ebanisteriamarenas.com');</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1865</v>
+      </c>
+      <c r="N122">
         <v>121</v>
       </c>
-      <c r="J122" t="s">
+      <c r="O122" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="123" spans="2:10" ht="30">
+    <row r="123" spans="1:15" ht="30">
+      <c r="A123" t="s">
+        <v>1746</v>
+      </c>
       <c r="B123" t="s">
         <v>1276</v>
       </c>
@@ -64429,14 +66563,27 @@
       <c r="D123" s="68">
         <v>13</v>
       </c>
+      <c r="E123" t="s">
+        <v>1529</v>
+      </c>
       <c r="F123" s="4">
         <v>913839119</v>
       </c>
       <c r="G123" s="24" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="124" spans="2:10" ht="30">
+      <c r="H123" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Favio', 'Zambelli ', 13, null, '913839119', 'favio@labrujula.eu');</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="30">
+      <c r="A124" t="s">
+        <v>1746</v>
+      </c>
       <c r="B124" t="s">
         <v>1324</v>
       </c>
@@ -64446,20 +66593,33 @@
       <c r="D124" s="68">
         <v>123</v>
       </c>
+      <c r="E124" t="s">
+        <v>1529</v>
+      </c>
       <c r="F124" s="6">
         <v>916266395</v>
       </c>
       <c r="G124" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="I124">
+      <c r="H124" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Dolores', 'Muñoz Fernandez', 123, null, '916266395', 'lola@nuevobano.es');</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1866</v>
+      </c>
+      <c r="N124">
         <v>123</v>
       </c>
-      <c r="J124" t="s">
+      <c r="O124" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="1:15">
+      <c r="A125" t="s">
+        <v>1746</v>
+      </c>
       <c r="B125"/>
       <c r="C125" t="s">
         <v>1378</v>
@@ -64467,16 +66627,29 @@
       <c r="D125" s="68">
         <v>124</v>
       </c>
+      <c r="E125" t="s">
+        <v>1529</v>
+      </c>
       <c r="F125" s="6"/>
       <c r="G125" s="25"/>
-      <c r="I125">
+      <c r="H125" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 124, null, '', '');</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1867</v>
+      </c>
+      <c r="N125">
         <v>124</v>
       </c>
-      <c r="J125" t="s">
+      <c r="O125" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="126" spans="2:10" ht="45">
+    <row r="126" spans="1:15" ht="45">
+      <c r="A126" t="s">
+        <v>1746</v>
+      </c>
       <c r="B126" t="s">
         <v>1260</v>
       </c>
@@ -64486,20 +66659,33 @@
       <c r="D126" s="68">
         <v>125</v>
       </c>
+      <c r="E126" t="s">
+        <v>1529</v>
+      </c>
       <c r="F126" s="4">
         <v>910245394</v>
       </c>
       <c r="G126" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="I126">
+      <c r="H126" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Lorena', ' ', 125, null, '910245394', 'info@pacificoshop.com');</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1868</v>
+      </c>
+      <c r="N126">
         <v>125</v>
       </c>
-      <c r="J126" t="s">
+      <c r="O126" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="127" spans="2:10" ht="45">
+    <row r="127" spans="1:15" ht="45">
+      <c r="A127" t="s">
+        <v>1746</v>
+      </c>
       <c r="B127" t="s">
         <v>1291</v>
       </c>
@@ -64509,20 +66695,33 @@
       <c r="D127" s="68">
         <v>126</v>
       </c>
+      <c r="E127" t="s">
+        <v>1529</v>
+      </c>
       <c r="F127" s="4">
         <v>916209286</v>
       </c>
       <c r="G127" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="I127">
+      <c r="H127" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Jesus', 'Pamo ', 126, null, '916209286', 'contacto@pamoglass.com');</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1869</v>
+      </c>
+      <c r="N127">
         <v>126</v>
       </c>
-      <c r="J127" t="s">
+      <c r="O127" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="45">
+    <row r="128" spans="1:15" ht="45">
+      <c r="A128" t="s">
+        <v>1746</v>
+      </c>
       <c r="B128"/>
       <c r="C128" t="s">
         <v>1378</v>
@@ -64530,20 +66729,33 @@
       <c r="D128" s="68">
         <v>127</v>
       </c>
+      <c r="E128" t="s">
+        <v>1529</v>
+      </c>
       <c r="F128" s="4">
         <v>917970415</v>
       </c>
       <c r="G128" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="I128">
+      <c r="H128" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 127, null, '917970415', 'francisco.rivera@panflor.es');</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1870</v>
+      </c>
+      <c r="N128">
         <v>127</v>
       </c>
-      <c r="J128" t="s">
+      <c r="O128" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="129" spans="2:10" ht="45">
+    <row r="129" spans="1:15" ht="45">
+      <c r="A129" t="s">
+        <v>1746</v>
+      </c>
       <c r="B129" t="s">
         <v>1366</v>
       </c>
@@ -64553,20 +66765,33 @@
       <c r="D129" s="68">
         <v>128</v>
       </c>
+      <c r="E129" t="s">
+        <v>1529</v>
+      </c>
       <c r="F129" s="4">
         <v>913324949</v>
       </c>
       <c r="G129" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="I129">
+      <c r="H129" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Miguel Angel', 'Ruiz Cabanillas', 128, null, '913324949', 'contacto@pintaestetic.es');</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1871</v>
+      </c>
+      <c r="N129">
         <v>128</v>
       </c>
-      <c r="J129" t="s">
+      <c r="O129" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="130" spans="2:10" ht="45">
+    <row r="130" spans="1:15" ht="45">
+      <c r="A130" t="s">
+        <v>1746</v>
+      </c>
       <c r="B130" t="s">
         <v>1325</v>
       </c>
@@ -64576,20 +66801,33 @@
       <c r="D130" s="68">
         <v>129</v>
       </c>
+      <c r="E130" t="s">
+        <v>1529</v>
+      </c>
       <c r="F130" s="4">
         <v>913573714</v>
       </c>
       <c r="G130" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="I130">
+      <c r="H130" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO contactos VALUES (null,'Julian', 'Gil Serrano', 129, null, '913573714', 'peugeot@autosaravaca.com');</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1872</v>
+      </c>
+      <c r="N130">
         <v>129</v>
       </c>
-      <c r="J130" t="s">
+      <c r="O130" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="131" spans="2:10" ht="45">
+    <row r="131" spans="1:15" ht="45">
+      <c r="A131" t="s">
+        <v>1746</v>
+      </c>
       <c r="B131" t="s">
         <v>1263</v>
       </c>
@@ -64599,20 +66837,33 @@
       <c r="D131" s="68">
         <v>130</v>
       </c>
+      <c r="E131" t="s">
+        <v>1529</v>
+      </c>
       <c r="F131" s="4">
         <v>914092456</v>
       </c>
       <c r="G131" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="I131">
+      <c r="H131" t="str">
+        <f t="shared" ref="H131:H192" si="2">CONCATENATE(A131,"'",B131,"', '",C131,"', ",D131,", ",E131,", '",F131,"', '",G131,"');")</f>
+        <v>INSERT INTO contactos VALUES (null,'Maria', 'del Puerto Diaz', 130, null, '914092456', 'nunospasteleria@yahoo.es');</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1873</v>
+      </c>
+      <c r="N131">
         <v>130</v>
       </c>
-      <c r="J131" t="s">
+      <c r="O131" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="132" spans="2:10" ht="45">
+    <row r="132" spans="1:15" ht="45">
+      <c r="A132" t="s">
+        <v>1746</v>
+      </c>
       <c r="B132" t="s">
         <v>1326</v>
       </c>
@@ -64622,20 +66873,33 @@
       <c r="D132" s="68">
         <v>131</v>
       </c>
+      <c r="E132" t="s">
+        <v>1529</v>
+      </c>
       <c r="F132" s="4">
         <v>916790233</v>
       </c>
       <c r="G132" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="I132">
+      <c r="H132" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Pepe', 'Pizarro ', 131, null, '916790233', 'administracion@neoferrsl.es');</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1874</v>
+      </c>
+      <c r="N132">
         <v>131</v>
       </c>
-      <c r="J132" t="s">
+      <c r="O132" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="2:10" ht="45">
+    <row r="133" spans="1:15" ht="45">
+      <c r="A133" t="s">
+        <v>1746</v>
+      </c>
       <c r="B133" t="s">
         <v>1325</v>
       </c>
@@ -64645,20 +66909,33 @@
       <c r="D133" s="68">
         <v>132</v>
       </c>
+      <c r="E133" t="s">
+        <v>1529</v>
+      </c>
       <c r="F133" s="4">
         <v>918733244</v>
       </c>
       <c r="G133" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="I133">
+      <c r="H133" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Julian', 'Martinez ', 132, null, '918733244', 'jmartinez@perfomar2000.es');</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1875</v>
+      </c>
+      <c r="N133">
         <v>132</v>
       </c>
-      <c r="J133" t="s">
+      <c r="O133" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="134" spans="2:10" ht="45">
+    <row r="134" spans="1:15" ht="45">
+      <c r="A134" t="s">
+        <v>1746</v>
+      </c>
       <c r="B134" t="s">
         <v>1327</v>
       </c>
@@ -64667,19 +66944,32 @@
       </c>
       <c r="D134" s="68">
         <v>133</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1529</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="I134">
+      <c r="H134" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Emanuel', 'Florin Capatana', 133, null, '', 'mcapatanasl@gmail.com');</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1876</v>
+      </c>
+      <c r="N134">
         <v>133</v>
       </c>
-      <c r="J134" t="s">
+      <c r="O134" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="135" spans="2:10" ht="60">
+    <row r="135" spans="1:15" ht="60">
+      <c r="A135" t="s">
+        <v>1746</v>
+      </c>
       <c r="B135" t="s">
         <v>1292</v>
       </c>
@@ -64689,20 +66979,33 @@
       <c r="D135" s="68">
         <v>134</v>
       </c>
+      <c r="E135" t="s">
+        <v>1529</v>
+      </c>
       <c r="F135" s="4" t="s">
         <v>812</v>
       </c>
       <c r="G135" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="I135">
+      <c r="H135" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Raul', 'Adsuar ', 134, null, '96.297 87 69', 'persianasraser@persianasraser.com NOEMI');</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1877</v>
+      </c>
+      <c r="N135">
         <v>134</v>
       </c>
-      <c r="J135" t="s">
+      <c r="O135" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="136" spans="2:10" ht="45">
+    <row r="136" spans="1:15" ht="45">
+      <c r="A136" t="s">
+        <v>1746</v>
+      </c>
       <c r="B136" t="s">
         <v>1263</v>
       </c>
@@ -64712,20 +67015,33 @@
       <c r="D136" s="68">
         <v>135</v>
       </c>
+      <c r="E136" t="s">
+        <v>1529</v>
+      </c>
       <c r="F136" s="4">
         <v>918462299</v>
       </c>
       <c r="G136" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="I136">
+      <c r="H136" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Maria', 'Garcia ', 135, null, '918462299', 'hermanosserranito@gmail.com');</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1878</v>
+      </c>
+      <c r="N136">
         <v>135</v>
       </c>
-      <c r="J136" t="s">
+      <c r="O136" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="2:10" ht="45">
+    <row r="137" spans="1:15" ht="45">
+      <c r="A137" t="s">
+        <v>1746</v>
+      </c>
       <c r="B137" t="s">
         <v>1367</v>
       </c>
@@ -64735,20 +67051,33 @@
       <c r="D137" s="68">
         <v>136</v>
       </c>
+      <c r="E137" t="s">
+        <v>1529</v>
+      </c>
       <c r="F137" s="4">
         <v>915441029</v>
       </c>
       <c r="G137" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="I137">
+      <c r="H137" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Julio Cesar', 'Aragon ', 136, null, '915441029', 'contacto@pilateselpatio.es');</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1879</v>
+      </c>
+      <c r="N137">
         <v>136</v>
       </c>
-      <c r="J137" t="s">
+      <c r="O137" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="138" spans="2:10" ht="45">
+    <row r="138" spans="1:15" ht="45">
+      <c r="A138" t="s">
+        <v>1746</v>
+      </c>
       <c r="B138"/>
       <c r="C138" t="s">
         <v>1378</v>
@@ -64756,20 +67085,33 @@
       <c r="D138" s="68">
         <v>137</v>
       </c>
+      <c r="E138" t="s">
+        <v>1529</v>
+      </c>
       <c r="F138" s="34">
         <v>638742015</v>
       </c>
       <c r="G138" s="34" t="s">
         <v>891</v>
       </c>
-      <c r="I138">
+      <c r="H138" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 137, null, '638742015', 'ccaltuzarra@pinkfish.es');</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1880</v>
+      </c>
+      <c r="N138">
         <v>137</v>
       </c>
-      <c r="J138" t="s">
+      <c r="O138" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="139" spans="2:10" ht="45">
+    <row r="139" spans="1:15" ht="45">
+      <c r="A139" t="s">
+        <v>1746</v>
+      </c>
       <c r="B139" t="s">
         <v>1366</v>
       </c>
@@ -64779,14 +67121,27 @@
       <c r="D139" s="68">
         <v>128</v>
       </c>
+      <c r="E139" t="s">
+        <v>1529</v>
+      </c>
       <c r="F139" s="4">
         <v>913324949</v>
       </c>
       <c r="G139" s="24" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="140" spans="2:10" ht="60">
+      <c r="H139" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Miguel Angel', 'Ruiz Cabanillas', 128, null, '913324949', 'contacto@pintaestetic.es');</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="60">
+      <c r="A140" t="s">
+        <v>1746</v>
+      </c>
       <c r="B140" t="s">
         <v>1292</v>
       </c>
@@ -64796,20 +67151,33 @@
       <c r="D140" s="68">
         <v>139</v>
       </c>
+      <c r="E140" t="s">
+        <v>1529</v>
+      </c>
       <c r="F140" s="4">
         <v>912492623</v>
       </c>
       <c r="G140" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="I140">
+      <c r="H140" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Raul', 'Calderón Morlon', 139, null, '912492623', 'pinturas@decoracionescalderonsl.es');</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1881</v>
+      </c>
+      <c r="N140">
         <v>139</v>
       </c>
-      <c r="J140" t="s">
+      <c r="O140" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="141" spans="2:10" ht="30">
+    <row r="141" spans="1:15" ht="30">
+      <c r="A141" t="s">
+        <v>1746</v>
+      </c>
       <c r="B141" t="s">
         <v>1328</v>
       </c>
@@ -64819,20 +67187,33 @@
       <c r="D141" s="68">
         <v>140</v>
       </c>
+      <c r="E141" t="s">
+        <v>1529</v>
+      </c>
       <c r="F141" s="4">
         <v>938499738</v>
       </c>
       <c r="G141" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="I141">
+      <c r="H141" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Francesc', 'Encinas ', 140, null, '938499738', 'admin@tauxvalles.com');</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1882</v>
+      </c>
+      <c r="N141">
         <v>140</v>
       </c>
-      <c r="J141" t="s">
+      <c r="O141" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="142" spans="2:10" ht="45">
+    <row r="142" spans="1:15" ht="45">
+      <c r="A142" t="s">
+        <v>1746</v>
+      </c>
       <c r="B142" t="s">
         <v>1261</v>
       </c>
@@ -64842,20 +67223,33 @@
       <c r="D142" s="68">
         <v>141</v>
       </c>
+      <c r="E142" t="s">
+        <v>1529</v>
+      </c>
       <c r="F142" s="4">
         <v>916793257</v>
       </c>
       <c r="G142" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="I142">
+      <c r="H142" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose Antonio', ' ', 141, null, '916793257', 'contacto@plasticos-hernanz.es');</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1883</v>
+      </c>
+      <c r="N142">
         <v>141</v>
       </c>
-      <c r="J142" t="s">
+      <c r="O142" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="143" spans="2:10" ht="45">
+    <row r="143" spans="1:15" ht="45">
+      <c r="A143" t="s">
+        <v>1746</v>
+      </c>
       <c r="B143" t="s">
         <v>1268</v>
       </c>
@@ -64865,20 +67259,33 @@
       <c r="D143" s="68">
         <v>142</v>
       </c>
+      <c r="E143" t="s">
+        <v>1529</v>
+      </c>
       <c r="F143" s="4">
         <v>913552124</v>
       </c>
       <c r="G143" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="I143">
+      <c r="H143" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Daniel', 'de la Rosa Martinez', 142, null, '913552124', 'administracion@polsazener.es');</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1884</v>
+      </c>
+      <c r="N143">
         <v>142</v>
       </c>
-      <c r="J143" t="s">
+      <c r="O143" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="144" spans="2:10" ht="45">
+    <row r="144" spans="1:15" ht="45">
+      <c r="A144" t="s">
+        <v>1746</v>
+      </c>
       <c r="B144" t="s">
         <v>1298</v>
       </c>
@@ -64888,14 +67295,27 @@
       <c r="D144" s="68">
         <v>62</v>
       </c>
+      <c r="E144" t="s">
+        <v>1529</v>
+      </c>
       <c r="F144" s="4">
         <v>915793282</v>
       </c>
       <c r="G144" s="24" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="145" spans="2:10" ht="60">
+      <c r="H144" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Manuel', 'Perez ', 62, null, '915793282', 'huellas2@phuellas.com');</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="60">
+      <c r="A145" t="s">
+        <v>1746</v>
+      </c>
       <c r="B145" t="s">
         <v>1329</v>
       </c>
@@ -64905,20 +67325,33 @@
       <c r="D145" s="68">
         <v>144</v>
       </c>
+      <c r="E145" t="s">
+        <v>1529</v>
+      </c>
       <c r="F145" s="4">
         <v>916845564</v>
       </c>
       <c r="G145" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="I145">
+      <c r="H145" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Victoriano', 'Sanchez Rodriguez', 144, null, '916845564', 'comercial@pr-montalve.es');</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1885</v>
+      </c>
+      <c r="N145">
         <v>144</v>
       </c>
-      <c r="J145" t="s">
+      <c r="O145" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="146" spans="2:10" ht="45">
+    <row r="146" spans="1:15" ht="45">
+      <c r="A146" t="s">
+        <v>1746</v>
+      </c>
       <c r="B146" t="s">
         <v>1312</v>
       </c>
@@ -64928,20 +67361,33 @@
       <c r="D146" s="68">
         <v>145</v>
       </c>
+      <c r="E146" t="s">
+        <v>1529</v>
+      </c>
       <c r="F146" s="4">
         <v>918862597</v>
       </c>
       <c r="G146" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="I146">
+      <c r="H146" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Mari', 'Carmen Martin', 145, null, '918862597', 'm.carmen.martin@live.com');</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1886</v>
+      </c>
+      <c r="N146">
         <v>145</v>
       </c>
-      <c r="J146" t="s">
+      <c r="O146" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="147" spans="2:10" ht="60">
+    <row r="147" spans="1:15" ht="60">
+      <c r="A147" t="s">
+        <v>1746</v>
+      </c>
       <c r="B147" t="s">
         <v>1321</v>
       </c>
@@ -64951,20 +67397,33 @@
       <c r="D147" s="68">
         <v>146</v>
       </c>
+      <c r="E147" t="s">
+        <v>1529</v>
+      </c>
       <c r="F147" s="4">
         <v>938932441</v>
       </c>
       <c r="G147" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="I147">
+      <c r="H147" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Joan', 'Raich ', 146, null, '938932441', 'raichsonoritzacions@telefonica.net');</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1887</v>
+      </c>
+      <c r="N147">
         <v>146</v>
       </c>
-      <c r="J147" t="s">
+      <c r="O147" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="148" spans="2:10" ht="45">
+    <row r="148" spans="1:15" ht="45">
+      <c r="A148" t="s">
+        <v>1746</v>
+      </c>
       <c r="B148" t="s">
         <v>1330</v>
       </c>
@@ -64973,19 +67432,32 @@
       </c>
       <c r="D148" s="68">
         <v>147</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1529</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="I148">
+      <c r="H148" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Abelardo', 'Moreno Jimenez', 147, null, '', 'info@centrodelaccidentado.com');</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1888</v>
+      </c>
+      <c r="N148">
         <v>147</v>
       </c>
-      <c r="J148" t="s">
+      <c r="O148" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="149" spans="2:10" ht="45">
+    <row r="149" spans="1:15" ht="45">
+      <c r="A149" t="s">
+        <v>1746</v>
+      </c>
       <c r="B149" t="s">
         <v>1331</v>
       </c>
@@ -64995,20 +67467,33 @@
       <c r="D149" s="68">
         <v>148</v>
       </c>
+      <c r="E149" t="s">
+        <v>1529</v>
+      </c>
       <c r="F149" s="4">
         <v>914651859</v>
       </c>
       <c r="G149" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="I149">
+      <c r="H149" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Joaquin', 'Fernandez Serrano', 148, null, '914651859', 'fernandez_asistencia@yahoo.es');</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1889</v>
+      </c>
+      <c r="N149">
         <v>148</v>
       </c>
-      <c r="J149" t="s">
+      <c r="O149" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="150" spans="2:10" ht="45">
+    <row r="150" spans="1:15" ht="45">
+      <c r="A150" t="s">
+        <v>1746</v>
+      </c>
       <c r="B150" t="s">
         <v>1274</v>
       </c>
@@ -65018,20 +67503,33 @@
       <c r="D150" s="68">
         <v>149</v>
       </c>
+      <c r="E150" t="s">
+        <v>1529</v>
+      </c>
       <c r="F150" s="4">
         <v>913567102</v>
       </c>
       <c r="G150" s="24" t="s">
         <v>660</v>
       </c>
-      <c r="I150">
+      <c r="H150" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Fernando', 'Pinilla ', 149, null, '913567102', 'clientes@pinilla-teyco.com');</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1890</v>
+      </c>
+      <c r="N150">
         <v>149</v>
       </c>
-      <c r="J150" t="s">
+      <c r="O150" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="151" spans="2:10" ht="30">
+    <row r="151" spans="1:15" ht="30">
+      <c r="A151" t="s">
+        <v>1746</v>
+      </c>
       <c r="B151" t="s">
         <v>1355</v>
       </c>
@@ -65041,20 +67539,33 @@
       <c r="D151" s="68">
         <v>150</v>
       </c>
+      <c r="E151" t="s">
+        <v>1529</v>
+      </c>
       <c r="F151" s="4">
         <v>921198735</v>
       </c>
       <c r="G151" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="I151">
+      <c r="H151" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Carlos', 'Pastor ', 150, null, '921198735', 'pastoracp@gmail.com');</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1891</v>
+      </c>
+      <c r="N151">
         <v>150</v>
       </c>
-      <c r="J151" t="s">
+      <c r="O151" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="152" spans="2:10" ht="90">
+    <row r="152" spans="1:15" ht="90">
+      <c r="A152" t="s">
+        <v>1746</v>
+      </c>
       <c r="B152" t="s">
         <v>1262</v>
       </c>
@@ -65064,20 +67575,33 @@
       <c r="D152" s="68">
         <v>151</v>
       </c>
+      <c r="E152" t="s">
+        <v>1529</v>
+      </c>
       <c r="F152" s="4">
         <v>916831021</v>
       </c>
       <c r="G152" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="I152">
+      <c r="H152" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Francisco Javier', ' ', 151, null, '916831021', 'maversursl@wanadoo.es - j.k.vertical@outlook.es');</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1892</v>
+      </c>
+      <c r="N152">
         <v>151</v>
       </c>
-      <c r="J152" t="s">
+      <c r="O152" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="153" spans="2:10" ht="60">
+    <row r="153" spans="1:15" ht="60">
+      <c r="A153" t="s">
+        <v>1746</v>
+      </c>
       <c r="B153" t="s">
         <v>1332</v>
       </c>
@@ -65087,20 +67611,33 @@
       <c r="D153" s="68">
         <v>152</v>
       </c>
+      <c r="E153" t="s">
+        <v>1529</v>
+      </c>
       <c r="F153" s="4">
         <v>911136153</v>
       </c>
       <c r="G153" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="I153">
+      <c r="H153" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Ivan', 'Tebar Largo', 152, null, '911136153', 'info@rehabilitaciones-linaresjaen.com');</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N153">
         <v>152</v>
       </c>
-      <c r="J153" t="s">
+      <c r="O153" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="154" spans="2:10" ht="45">
+    <row r="154" spans="1:15" ht="45">
+      <c r="A154" t="s">
+        <v>1746</v>
+      </c>
       <c r="B154"/>
       <c r="C154" t="s">
         <v>1378</v>
@@ -65108,18 +67645,31 @@
       <c r="D154" s="68">
         <v>153</v>
       </c>
+      <c r="E154" t="s">
+        <v>1529</v>
+      </c>
       <c r="F154" s="34"/>
       <c r="G154" s="35" t="s">
         <v>909</v>
       </c>
-      <c r="I154">
+      <c r="H154" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 153, null, '', 'javier@renthability.com');</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1894</v>
+      </c>
+      <c r="N154">
         <v>153</v>
       </c>
-      <c r="J154" t="s">
+      <c r="O154" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="155" spans="2:10" ht="45">
+    <row r="155" spans="1:15" ht="45">
+      <c r="A155" t="s">
+        <v>1746</v>
+      </c>
       <c r="B155" t="s">
         <v>1368</v>
       </c>
@@ -65129,20 +67679,33 @@
       <c r="D155" s="68">
         <v>154</v>
       </c>
+      <c r="E155" t="s">
+        <v>1529</v>
+      </c>
       <c r="F155" s="4">
         <v>918719483</v>
       </c>
       <c r="G155" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="I155">
+      <c r="H155" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Juan Ramon', 'Pedroche Ovejero', 154, null, '918719483', 'administracion@solrepyma.com');</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1895</v>
+      </c>
+      <c r="N155">
         <v>154</v>
       </c>
-      <c r="J155" t="s">
+      <c r="O155" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="156" spans="2:10" ht="45">
+    <row r="156" spans="1:15" ht="45">
+      <c r="A156" t="s">
+        <v>1746</v>
+      </c>
       <c r="B156" t="s">
         <v>1298</v>
       </c>
@@ -65152,20 +67715,33 @@
       <c r="D156" s="68">
         <v>155</v>
       </c>
+      <c r="E156" t="s">
+        <v>1529</v>
+      </c>
       <c r="F156" s="4">
         <v>914485615</v>
       </c>
       <c r="G156" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="I156">
+      <c r="H156" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Manuel', 'Joven ', 155, null, '914485615', 'facturacion@copiaslara.es');</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1896</v>
+      </c>
+      <c r="N156">
         <v>155</v>
       </c>
-      <c r="J156" t="s">
+      <c r="O156" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="157" spans="2:10" ht="45">
+    <row r="157" spans="1:15" ht="45">
+      <c r="A157" t="s">
+        <v>1746</v>
+      </c>
       <c r="B157" t="s">
         <v>1311</v>
       </c>
@@ -65175,20 +67751,33 @@
       <c r="D157" s="68">
         <v>156</v>
       </c>
+      <c r="E157" t="s">
+        <v>1529</v>
+      </c>
       <c r="F157" s="4">
         <v>916376706</v>
       </c>
       <c r="G157" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="I157">
+      <c r="H157" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Francisco', 'Benedito ', 156, null, '916376706', 'pedidos@riegosprogramados.es');</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1897</v>
+      </c>
+      <c r="N157">
         <v>156</v>
       </c>
-      <c r="J157" t="s">
+      <c r="O157" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="158" spans="2:10" ht="45">
+    <row r="158" spans="1:15" ht="45">
+      <c r="A158" t="s">
+        <v>1746</v>
+      </c>
       <c r="B158" t="s">
         <v>1369</v>
       </c>
@@ -65198,20 +67787,33 @@
       <c r="D158" s="68">
         <v>157</v>
       </c>
+      <c r="E158" t="s">
+        <v>1529</v>
+      </c>
       <c r="F158" s="4">
         <v>699915132</v>
       </c>
       <c r="G158" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="I158">
+      <c r="H158" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose Manuel', 'Fuentes ', 157, null, '699915132', 'royma@rodapies-royma.com');</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1898</v>
+      </c>
+      <c r="N158">
         <v>157</v>
       </c>
-      <c r="J158" t="s">
+      <c r="O158" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="159" spans="2:10" ht="60">
+    <row r="159" spans="1:15" ht="60">
+      <c r="A159" t="s">
+        <v>1746</v>
+      </c>
       <c r="B159" t="s">
         <v>1333</v>
       </c>
@@ -65221,20 +67823,33 @@
       <c r="D159" s="68">
         <v>158</v>
       </c>
+      <c r="E159" t="s">
+        <v>1529</v>
+      </c>
       <c r="F159" s="4">
         <v>916522947</v>
       </c>
       <c r="G159" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="I159">
+      <c r="H159" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Adolfo', 'Martin ', 158, null, '916522947', 'rosan-nuevalinea@hotmail.es');</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1899</v>
+      </c>
+      <c r="N159">
         <v>158</v>
       </c>
-      <c r="J159" t="s">
+      <c r="O159" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="160" spans="2:10" ht="45">
+    <row r="160" spans="1:15" ht="45">
+      <c r="A160" t="s">
+        <v>1746</v>
+      </c>
       <c r="B160" t="s">
         <v>1334</v>
       </c>
@@ -65244,20 +67859,33 @@
       <c r="D160" s="68">
         <v>159</v>
       </c>
+      <c r="E160" t="s">
+        <v>1529</v>
+      </c>
       <c r="F160" s="4" t="s">
         <v>807</v>
       </c>
       <c r="G160" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="I160">
+      <c r="H160" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Julián', 'Sánchez Serrano', 159, null, '916545700 Ext. 203', 'juliansanchez@rosatex.com');</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1900</v>
+      </c>
+      <c r="N160">
         <v>159</v>
       </c>
-      <c r="J160" t="s">
+      <c r="O160" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="161" spans="2:10" ht="45">
+    <row r="161" spans="1:15" ht="45">
+      <c r="A161" t="s">
+        <v>1746</v>
+      </c>
       <c r="B161" t="s">
         <v>1283</v>
       </c>
@@ -65267,20 +67895,33 @@
       <c r="D161" s="68">
         <v>160</v>
       </c>
+      <c r="E161" t="s">
+        <v>1529</v>
+      </c>
       <c r="F161" s="4">
         <v>949202602</v>
       </c>
       <c r="G161" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="I161">
+      <c r="H161" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Cristina', 'Canales del Rey', 160, null, '949202602', 'info@rotativascanales.com');</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1901</v>
+      </c>
+      <c r="N161">
         <v>160</v>
       </c>
-      <c r="J161" t="s">
+      <c r="O161" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="162" spans="2:10" ht="45">
+    <row r="162" spans="1:15" ht="45">
+      <c r="A162" t="s">
+        <v>1746</v>
+      </c>
       <c r="B162" t="s">
         <v>1259</v>
       </c>
@@ -65290,20 +67931,33 @@
       <c r="D162" s="68">
         <v>161</v>
       </c>
+      <c r="E162" t="s">
+        <v>1529</v>
+      </c>
       <c r="F162" s="4">
         <v>934313806</v>
       </c>
       <c r="G162" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="I162">
+      <c r="H162" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Antonio', 'Doblas Alvarez', 161, null, '934313806', 'contacto@rotulos-doblas.com');</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1902</v>
+      </c>
+      <c r="N162">
         <v>161</v>
       </c>
-      <c r="J162" t="s">
+      <c r="O162" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="163" spans="2:10" ht="30">
+    <row r="163" spans="1:15" ht="30">
+      <c r="A163" t="s">
+        <v>1746</v>
+      </c>
       <c r="B163" t="s">
         <v>1272</v>
       </c>
@@ -65313,20 +67967,33 @@
       <c r="D163" s="68">
         <v>162</v>
       </c>
+      <c r="E163" t="s">
+        <v>1529</v>
+      </c>
       <c r="F163" s="6">
         <v>961472200</v>
       </c>
       <c r="G163" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="I163">
+      <c r="H163" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Vicente', 'Cuesta ', 162, null, '961472200', 'admon@jocu.es');</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1903</v>
+      </c>
+      <c r="N163">
         <v>162</v>
       </c>
-      <c r="J163" t="s">
+      <c r="O163" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="164" spans="2:10" ht="45">
+    <row r="164" spans="1:15" ht="45">
+      <c r="A164" t="s">
+        <v>1746</v>
+      </c>
       <c r="B164" t="s">
         <v>1290</v>
       </c>
@@ -65336,20 +68003,33 @@
       <c r="D164" s="68">
         <v>163</v>
       </c>
+      <c r="E164" t="s">
+        <v>1529</v>
+      </c>
       <c r="F164" s="4" t="s">
         <v>808</v>
       </c>
       <c r="G164" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="I164">
+      <c r="H164" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Carlos', 'Lopez Sanchez', 163, null, '925 86 63 29', 'micarevasalones@hotmail.com');</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1904</v>
+      </c>
+      <c r="N164">
         <v>163</v>
       </c>
-      <c r="J164" t="s">
+      <c r="O164" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="165" spans="2:10" ht="45">
+    <row r="165" spans="1:15" ht="45">
+      <c r="A165" t="s">
+        <v>1746</v>
+      </c>
       <c r="B165" t="s">
         <v>1369</v>
       </c>
@@ -65359,20 +68039,33 @@
       <c r="D165" s="68">
         <v>164</v>
       </c>
+      <c r="E165" t="s">
+        <v>1529</v>
+      </c>
       <c r="F165" s="4">
         <v>925540320</v>
       </c>
       <c r="G165" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="I165">
+      <c r="H165" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose Manuel', 'Gomez ', 164, null, '925540320', 'conta@senoriodelmueble.com');</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1905</v>
+      </c>
+      <c r="N165">
         <v>164</v>
       </c>
-      <c r="J165" t="s">
+      <c r="O165" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="166" spans="2:10" ht="45">
+    <row r="166" spans="1:15" ht="45">
+      <c r="A166" t="s">
+        <v>1746</v>
+      </c>
       <c r="B166" t="s">
         <v>1335</v>
       </c>
@@ -65382,20 +68075,33 @@
       <c r="D166" s="68">
         <v>165</v>
       </c>
+      <c r="E166" t="s">
+        <v>1529</v>
+      </c>
       <c r="F166" s="34">
         <v>915348320</v>
       </c>
       <c r="G166" s="34" t="s">
         <v>916</v>
       </c>
-      <c r="I166">
+      <c r="H166" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'David', 'Germán ', 165, null, '915348320', 'administracion@serenur.com');</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1906</v>
+      </c>
+      <c r="N166">
         <v>165</v>
       </c>
-      <c r="J166" t="s">
+      <c r="O166" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="167" spans="2:10" ht="45">
+    <row r="167" spans="1:15" ht="45">
+      <c r="A167" t="s">
+        <v>1746</v>
+      </c>
       <c r="B167" t="s">
         <v>1336</v>
       </c>
@@ -65405,20 +68111,33 @@
       <c r="D167" s="68">
         <v>166</v>
       </c>
+      <c r="E167" t="s">
+        <v>1529</v>
+      </c>
       <c r="F167" s="4">
         <v>934268302</v>
       </c>
       <c r="G167" s="24" t="s">
         <v>874</v>
       </c>
-      <c r="I167">
+      <c r="H167" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Albert', 'Cata ', 166, null, '934268302', ' info@cataserveis.com');</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1907</v>
+      </c>
+      <c r="N167">
         <v>166</v>
       </c>
-      <c r="J167" t="s">
+      <c r="O167" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="168" spans="2:10" ht="30">
+    <row r="168" spans="1:15" ht="30">
+      <c r="A168" t="s">
+        <v>1746</v>
+      </c>
       <c r="B168" t="s">
         <v>1309</v>
       </c>
@@ -65428,20 +68147,33 @@
       <c r="D168" s="68">
         <v>167</v>
       </c>
+      <c r="E168" t="s">
+        <v>1529</v>
+      </c>
       <c r="F168" s="4" t="s">
         <v>809</v>
       </c>
       <c r="G168" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="I168">
+      <c r="H168" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Belen', 'Torroba Cadavieco', 167, null, '652 64 35 08', 'belen_torr@yahoo.es');</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1908</v>
+      </c>
+      <c r="N168">
         <v>167</v>
       </c>
-      <c r="J168" t="s">
+      <c r="O168" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="169" spans="2:10" ht="30">
+    <row r="169" spans="1:15" ht="30">
+      <c r="A169" t="s">
+        <v>1746</v>
+      </c>
       <c r="B169" t="s">
         <v>1278</v>
       </c>
@@ -65451,20 +68183,33 @@
       <c r="D169" s="68">
         <v>168</v>
       </c>
+      <c r="E169" t="s">
+        <v>1529</v>
+      </c>
       <c r="F169" s="4">
         <v>917256945</v>
       </c>
       <c r="G169" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="I169">
+      <c r="H169" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Miguel', 'Vera Hernandez', 168, null, '917256945', 'mvera@tajusa.net');</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1909</v>
+      </c>
+      <c r="N169">
         <v>168</v>
       </c>
-      <c r="J169" t="s">
+      <c r="O169" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="1:15">
+      <c r="A170" t="s">
+        <v>1746</v>
+      </c>
       <c r="B170"/>
       <c r="C170" t="s">
         <v>1378</v>
@@ -65472,16 +68217,29 @@
       <c r="D170" s="68">
         <v>169</v>
       </c>
+      <c r="E170" t="s">
+        <v>1529</v>
+      </c>
       <c r="F170" s="6"/>
       <c r="G170" s="25"/>
-      <c r="I170">
+      <c r="H170" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 169, null, '', '');</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1910</v>
+      </c>
+      <c r="N170">
         <v>169</v>
       </c>
-      <c r="J170" t="s">
+      <c r="O170" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="171" spans="2:10" ht="45">
+    <row r="171" spans="1:15" ht="45">
+      <c r="A171" t="s">
+        <v>1746</v>
+      </c>
       <c r="B171" t="s">
         <v>1370</v>
       </c>
@@ -65491,20 +68249,33 @@
       <c r="D171" s="68">
         <v>170</v>
       </c>
+      <c r="E171" t="s">
+        <v>1529</v>
+      </c>
       <c r="F171" s="4">
         <v>918940255</v>
       </c>
       <c r="G171" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="I171">
+      <c r="H171" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'José Antonio', 'García Nuevo', 170, null, '918940255', 'garcianuevo@telefonica.net');</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1911</v>
+      </c>
+      <c r="N171">
         <v>170</v>
       </c>
-      <c r="J171" t="s">
+      <c r="O171" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="172" spans="2:10" ht="45">
+    <row r="172" spans="1:15" ht="45">
+      <c r="A172" t="s">
+        <v>1746</v>
+      </c>
       <c r="B172" t="s">
         <v>1325</v>
       </c>
@@ -65514,14 +68285,27 @@
       <c r="D172" s="68">
         <v>129</v>
       </c>
+      <c r="E172" t="s">
+        <v>1529</v>
+      </c>
       <c r="F172" s="4">
         <v>913078815</v>
       </c>
       <c r="G172" s="24" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="173" spans="2:10" ht="45">
+      <c r="H172" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Julian', 'Gil Serrano', 129, null, '913078815', 'peugeot@autosaravaca.com');</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="45">
+      <c r="A173" t="s">
+        <v>1746</v>
+      </c>
       <c r="B173" t="s">
         <v>1371</v>
       </c>
@@ -65531,20 +68315,33 @@
       <c r="D173" s="68">
         <v>172</v>
       </c>
+      <c r="E173" t="s">
+        <v>1529</v>
+      </c>
       <c r="F173" s="4" t="s">
         <v>810</v>
       </c>
       <c r="G173" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="I173">
+      <c r="H173" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Maria del Pilar', 'Camacho Collado', 172, null, '91 895 33 43', 'comercialhervi@hotmail.com');</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1913</v>
+      </c>
+      <c r="N173">
         <v>172</v>
       </c>
-      <c r="J173" t="s">
+      <c r="O173" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="174" spans="2:10" ht="60">
+    <row r="174" spans="1:15" ht="60">
+      <c r="A174" t="s">
+        <v>1746</v>
+      </c>
       <c r="B174" t="s">
         <v>1305</v>
       </c>
@@ -65554,14 +68351,27 @@
       <c r="D174" s="68">
         <v>75</v>
       </c>
+      <c r="E174" t="s">
+        <v>1529</v>
+      </c>
       <c r="F174" s="4">
         <v>916680090</v>
       </c>
       <c r="G174" s="24" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="175" spans="2:10" ht="45">
+      <c r="H174" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Pablo', 'Ortiz ', 75, null, '916680090', 'Joaquin@tavicce-marjop.com');</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="45">
+      <c r="A175" t="s">
+        <v>1746</v>
+      </c>
       <c r="B175" t="s">
         <v>928</v>
       </c>
@@ -65571,20 +68381,33 @@
       <c r="D175" s="68">
         <v>174</v>
       </c>
+      <c r="E175" t="s">
+        <v>1529</v>
+      </c>
       <c r="F175" s="4">
         <v>914272699</v>
       </c>
       <c r="G175" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="I175">
+      <c r="H175" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Monica', 'Tirado ', 174, null, '914272699', 'napsisbobath@hotmail.com');</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1914</v>
+      </c>
+      <c r="N175">
         <v>174</v>
       </c>
-      <c r="J175" t="s">
+      <c r="O175" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="2:10" ht="45">
+    <row r="176" spans="1:15" ht="45">
+      <c r="A176" t="s">
+        <v>1746</v>
+      </c>
       <c r="B176" t="s">
         <v>1337</v>
       </c>
@@ -65594,20 +68417,33 @@
       <c r="D176" s="68">
         <v>175</v>
       </c>
+      <c r="E176" t="s">
+        <v>1529</v>
+      </c>
       <c r="F176" s="4">
         <v>962779424</v>
       </c>
       <c r="G176" s="24" t="s">
         <v>876</v>
       </c>
-      <c r="I176">
+      <c r="H176" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Pascual', 'Cervera Vicente', 175, null, '962779424', 'tisoelevadores@hotmail.com');</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1915</v>
+      </c>
+      <c r="N176">
         <v>175</v>
       </c>
-      <c r="J176" t="s">
+      <c r="O176" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="45">
+    <row r="177" spans="1:15" ht="45">
+      <c r="A177" t="s">
+        <v>1746</v>
+      </c>
       <c r="B177" t="s">
         <v>1258</v>
       </c>
@@ -65617,20 +68453,33 @@
       <c r="D177" s="68">
         <v>176</v>
       </c>
+      <c r="E177" t="s">
+        <v>1529</v>
+      </c>
       <c r="F177" s="4">
         <v>914300922</v>
       </c>
       <c r="G177" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="I177">
+      <c r="H177" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Alfonso', 'Garcia ', 176, null, '914300922', 'toldosmoratalaz@gmx.es');</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1916</v>
+      </c>
+      <c r="N177">
         <v>176</v>
       </c>
-      <c r="J177" t="s">
+      <c r="O177" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="178" spans="2:10" ht="45">
+    <row r="178" spans="1:15" ht="45">
+      <c r="A178" t="s">
+        <v>1746</v>
+      </c>
       <c r="B178" t="s">
         <v>1275</v>
       </c>
@@ -65640,20 +68489,33 @@
       <c r="D178" s="68">
         <v>177</v>
       </c>
+      <c r="E178" t="s">
+        <v>1529</v>
+      </c>
       <c r="F178" s="4">
         <v>916464417</v>
       </c>
       <c r="G178" s="24" t="s">
         <v>614</v>
       </c>
-      <c r="I178">
+      <c r="H178" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Blas', 'Hergueta ', 177, null, '916464417', 'facturas@toldosmostoles.com');</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1917</v>
+      </c>
+      <c r="N178">
         <v>177</v>
       </c>
-      <c r="J178" t="s">
+      <c r="O178" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="30">
+    <row r="179" spans="1:15" ht="30">
+      <c r="A179" t="s">
+        <v>1746</v>
+      </c>
       <c r="B179" t="s">
         <v>1338</v>
       </c>
@@ -65663,20 +68525,33 @@
       <c r="D179" s="68">
         <v>178</v>
       </c>
+      <c r="E179" t="s">
+        <v>1529</v>
+      </c>
       <c r="F179" s="4" t="s">
         <v>811</v>
       </c>
       <c r="G179" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="I179">
+      <c r="H179" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Roberto', 'Alonso ', 178, null, '912 77 59 67', 'pvt2017@gmail.com');</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1918</v>
+      </c>
+      <c r="N179">
         <v>178</v>
       </c>
-      <c r="J179" t="s">
+      <c r="O179" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="180" spans="2:10" ht="45">
+    <row r="180" spans="1:15" ht="45">
+      <c r="A180" t="s">
+        <v>1746</v>
+      </c>
       <c r="B180" t="s">
         <v>1271</v>
       </c>
@@ -65686,20 +68561,33 @@
       <c r="D180" s="68">
         <v>179</v>
       </c>
+      <c r="E180" t="s">
+        <v>1529</v>
+      </c>
       <c r="F180" s="4">
         <v>925775194</v>
       </c>
       <c r="G180" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="I180">
+      <c r="H180" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Luis', 'Benito Palomo', 179, null, '925775194', 'tolintema@tolintema.com');</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1919</v>
+      </c>
+      <c r="N180">
         <v>179</v>
       </c>
-      <c r="J180" t="s">
+      <c r="O180" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="45">
+    <row r="181" spans="1:15" ht="45">
+      <c r="A181" t="s">
+        <v>1746</v>
+      </c>
       <c r="B181" t="s">
         <v>1339</v>
       </c>
@@ -65709,20 +68597,33 @@
       <c r="D181" s="68">
         <v>180</v>
       </c>
+      <c r="E181" t="s">
+        <v>1529</v>
+      </c>
       <c r="F181" s="4">
         <v>925232810</v>
       </c>
       <c r="G181" s="27" t="s">
         <v>617</v>
       </c>
-      <c r="I181">
+      <c r="H181" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Alejandro', 'Gomez ', 180, null, '925232810', 'tolpersol@hotmail.com');</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1920</v>
+      </c>
+      <c r="N181">
         <v>180</v>
       </c>
-      <c r="J181" t="s">
+      <c r="O181" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="182" spans="2:10" ht="45">
+    <row r="182" spans="1:15" ht="45">
+      <c r="A182" t="s">
+        <v>1746</v>
+      </c>
       <c r="B182" t="s">
         <v>1266</v>
       </c>
@@ -65732,20 +68633,33 @@
       <c r="D182" s="68">
         <v>181</v>
       </c>
+      <c r="E182" t="s">
+        <v>1529</v>
+      </c>
       <c r="F182" s="4">
         <v>918124593</v>
       </c>
       <c r="G182" s="24" t="s">
         <v>618</v>
       </c>
-      <c r="I182">
+      <c r="H182" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Javier', 'Priego del Hoyo', 181, null, '918124593', 'admontorrejoncars@gmail.com');</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1921</v>
+      </c>
+      <c r="N182">
         <v>181</v>
       </c>
-      <c r="J182" t="s">
+      <c r="O182" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="183" spans="2:10" ht="45">
+    <row r="183" spans="1:15" ht="45">
+      <c r="A183" t="s">
+        <v>1746</v>
+      </c>
       <c r="B183" t="s">
         <v>1335</v>
       </c>
@@ -65755,20 +68669,33 @@
       <c r="D183" s="68">
         <v>182</v>
       </c>
+      <c r="E183" t="s">
+        <v>1529</v>
+      </c>
       <c r="F183" s="4">
         <v>933811131</v>
       </c>
       <c r="G183" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="I183">
+      <c r="H183" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'David', 'Gual Gaju', 182, null, '933811131', 'zenitvertical@gmail.com');</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1922</v>
+      </c>
+      <c r="N183">
         <v>182</v>
       </c>
-      <c r="J183" t="s">
+      <c r="O183" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="184" spans="2:10" ht="45">
+    <row r="184" spans="1:15" ht="45">
+      <c r="A184" t="s">
+        <v>1746</v>
+      </c>
       <c r="B184" t="s">
         <v>1372</v>
       </c>
@@ -65778,20 +68705,33 @@
       <c r="D184" s="68">
         <v>183</v>
       </c>
+      <c r="E184" t="s">
+        <v>1529</v>
+      </c>
       <c r="F184" s="4">
         <v>915053848</v>
       </c>
       <c r="G184" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="I184">
+      <c r="H184" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Luis Miguel', 'Lopez Mateo', 183, null, '915053848', 'comercial@cardiberica.com');</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1923</v>
+      </c>
+      <c r="N184">
         <v>183</v>
       </c>
-      <c r="J184" t="s">
+      <c r="O184" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="1:15">
+      <c r="A185" t="s">
+        <v>1746</v>
+      </c>
       <c r="B185"/>
       <c r="C185" t="s">
         <v>1378</v>
@@ -65799,16 +68739,29 @@
       <c r="D185" s="68">
         <v>184</v>
       </c>
+      <c r="E185" t="s">
+        <v>1529</v>
+      </c>
       <c r="F185" s="6"/>
       <c r="G185" s="25"/>
-      <c r="I185">
+      <c r="H185" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'', ' ', 184, null, '', '');</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1924</v>
+      </c>
+      <c r="N185">
         <v>184</v>
       </c>
-      <c r="J185" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="186" spans="2:10" ht="45">
+      <c r="O185" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="45">
+      <c r="A186" t="s">
+        <v>1746</v>
+      </c>
       <c r="B186" t="s">
         <v>1290</v>
       </c>
@@ -65818,20 +68771,33 @@
       <c r="D186" s="68">
         <v>185</v>
       </c>
+      <c r="E186" t="s">
+        <v>1529</v>
+      </c>
       <c r="F186" s="4">
         <v>933252216</v>
       </c>
       <c r="G186" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="I186">
+      <c r="H186" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Carlos', 'Rodriguez Garcia', 185, null, '933252216', 'trofeosobelisco3@gmail.com');</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1925</v>
+      </c>
+      <c r="N186">
         <v>185</v>
       </c>
-      <c r="J186" t="s">
+      <c r="O186" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="187" spans="2:10" ht="45">
+    <row r="187" spans="1:15" ht="45">
+      <c r="A187" t="s">
+        <v>1746</v>
+      </c>
       <c r="B187" t="s">
         <v>1340</v>
       </c>
@@ -65841,20 +68807,33 @@
       <c r="D187" s="68">
         <v>186</v>
       </c>
+      <c r="E187" t="s">
+        <v>1529</v>
+      </c>
       <c r="F187" s="4">
         <v>914994452</v>
       </c>
       <c r="G187" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="I187">
+      <c r="H187" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Eugenio', 'Bellon ', 186, null, '914994452', 'eugenio@legondigital.com');</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1926</v>
+      </c>
+      <c r="N187">
         <v>186</v>
       </c>
-      <c r="J187" t="s">
+      <c r="O187" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="188" spans="2:10" ht="30">
+    <row r="188" spans="1:15" ht="30">
+      <c r="A188" t="s">
+        <v>1746</v>
+      </c>
       <c r="B188" t="s">
         <v>1309</v>
       </c>
@@ -65864,20 +68843,33 @@
       <c r="D188" s="68">
         <v>187</v>
       </c>
+      <c r="E188" t="s">
+        <v>1529</v>
+      </c>
       <c r="F188" s="32">
         <v>918530054</v>
       </c>
       <c r="G188" s="24" t="s">
         <v>847</v>
       </c>
-      <c r="I188">
+      <c r="H188" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Belen', 'Ruano Puente', 187, null, '918530054', 'info@pulsoanimal.com');</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1927</v>
+      </c>
+      <c r="N188">
         <v>187</v>
       </c>
-      <c r="J188" t="s">
+      <c r="O188" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="45">
+    <row r="189" spans="1:15" ht="45">
+      <c r="A189" t="s">
+        <v>1746</v>
+      </c>
       <c r="B189" t="s">
         <v>1270</v>
       </c>
@@ -65887,20 +68879,33 @@
       <c r="D189" s="68">
         <v>188</v>
       </c>
+      <c r="E189" t="s">
+        <v>1529</v>
+      </c>
       <c r="F189" s="4">
         <v>916326578</v>
       </c>
       <c r="G189" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="I189">
+      <c r="H189" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Jose', 'Guio ', 188, null, '916326578', 'vidriofusion1994@gmail.com');</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1928</v>
+      </c>
+      <c r="N189">
         <v>188</v>
       </c>
-      <c r="J189" t="s">
+      <c r="O189" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="190" spans="2:10" ht="30">
+    <row r="190" spans="1:15" ht="30">
+      <c r="A190" t="s">
+        <v>1746</v>
+      </c>
       <c r="B190" t="s">
         <v>1274</v>
       </c>
@@ -65910,20 +68915,33 @@
       <c r="D190" s="68">
         <v>189</v>
       </c>
+      <c r="E190" t="s">
+        <v>1529</v>
+      </c>
       <c r="F190" s="4">
         <v>915333739</v>
       </c>
       <c r="G190" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="I190">
+      <c r="H190" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Fernando', 'Martinez ', 189, null, '915333739', 'info@villasal.com');</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1929</v>
+      </c>
+      <c r="N190">
         <v>189</v>
       </c>
-      <c r="J190" t="s">
+      <c r="O190" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="191" spans="2:10" ht="45">
+    <row r="191" spans="1:15" ht="45">
+      <c r="A191" t="s">
+        <v>1746</v>
+      </c>
       <c r="B191" t="s">
         <v>1341</v>
       </c>
@@ -65933,20 +68951,33 @@
       <c r="D191" s="68">
         <v>190</v>
       </c>
+      <c r="E191" t="s">
+        <v>1529</v>
+      </c>
       <c r="F191" s="4">
         <v>931139111</v>
       </c>
       <c r="G191" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="I191">
+      <c r="H191" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Marc', 'Quintana ', 190, null, '931139111', 'comercial@windecoretols.com');</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1930</v>
+      </c>
+      <c r="N191">
         <v>190</v>
       </c>
-      <c r="J191" t="s">
+      <c r="O191" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="192" spans="2:10" ht="45">
+    <row r="192" spans="1:15" ht="45">
+      <c r="A192" t="s">
+        <v>1746</v>
+      </c>
       <c r="B192" t="s">
         <v>1342</v>
       </c>
@@ -65956,23 +68987,33 @@
       <c r="D192" s="68">
         <v>191</v>
       </c>
+      <c r="E192" t="s">
+        <v>1529</v>
+      </c>
       <c r="F192" s="8">
         <v>918013986</v>
       </c>
       <c r="G192" s="31" t="s">
         <v>625</v>
       </c>
-      <c r="I192">
+      <c r="H192" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO contactos VALUES (null,'Mocanu', 'Dumitru ', 191, null, '918013986', 'xventreunidos@yahoo.com');</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1931</v>
+      </c>
+      <c r="N192">
         <v>191</v>
       </c>
-      <c r="J192" t="s">
+      <c r="O192" t="s">
         <v>536</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G189" r:id="rId1"/>
-    <hyperlink ref="J5" r:id="rId2" display="john@agenciayou.com"/>
+    <hyperlink ref="O5" r:id="rId2" display="john@agenciayou.com"/>
     <hyperlink ref="G154" r:id="rId3"/>
     <hyperlink ref="G18" r:id="rId4"/>
     <hyperlink ref="G20" r:id="rId5"/>
@@ -65985,6 +69026,7 @@
     <hyperlink ref="G9" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
